--- a/umit_files/umit_fiz.xlsx
+++ b/umit_files/umit_fiz.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1JCcQkymlvNWPnTA8mMe5ivTYajKX3ars7kZl1SO-yGg/edit?usp=sharing"",""УМИТЫ!A:Z"")")," Кинематика")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1vmw03XSjxxlz1EBW_EfdG0S23ixVPn57ffzYUoXOmUA/edit#gid=0"",""УМИТЫ!A:Z"")")," Кинематика")</f>
         <v> Кинематика</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_fiz.xlsx
+++ b/umit_files/umit_fiz.xlsx
@@ -333,12 +333,12 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механическое движение и его относительность")</f>
-        <v>Механическое движение и его относительность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Траектория, путь, перемещение тела")</f>
+        <v>Траектория, путь, перемещение тела</v>
       </c>
       <c r="B2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Масса. Инертность. Формула массы через плотность и объем")</f>
@@ -349,28 +349,28 @@
         <v>101</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плечо силы")</f>
-        <v>Плечо силы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Момент силы относительно  точки или оси вращения")</f>
+        <v>Момент силы относительно  точки или оси вращения</v>
       </c>
       <c r="F2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс материальной точки.Сонаправленность вектора импульса и векрора скорости. Изменение импульса")</f>
-        <v>Импульс материальной точки.Сонаправленность вектора импульса и векрора скорости. Изменение импульса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс тела и системы тел по определению, изменение импульса")</f>
+        <v>Импульс тела и системы тел по определению, изменение импульса</v>
       </c>
       <c r="H2" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
         <v>301</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механические колебания. Колебательная система")</f>
-        <v>Механические колебания. Колебательная система</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Амплитуда, период, частота, циклическая частота, фаза колебаний, их связи")</f>
+        <v>Амплитуда, период, частота, циклическая частота, фаза колебаний, их связи</v>
       </c>
       <c r="J2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),402.0)</f>
+        <v>402</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Агрегатные состояния вещества. Модели строения газов, жидкостей и твёрдых тел")</f>
@@ -381,20 +381,20 @@
         <v>501</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электризация тел, её проявления и объяснение")</f>
-        <v>Электризация тел, её проявления и объяснение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды зарядов, элементарный заряд, закон сохранения заряда")</f>
+        <v>Виды зарядов, элементарный заряд, закон сохранения заряда</v>
       </c>
       <c r="N2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
-        <v>601</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
+        <v>602</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электрический ток. Условие существования тока в цепи")</f>
-        <v>Электрический ток. Условие существования тока в цепи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постоянный электрический ток, сила тока по модулю и направлению")</f>
+        <v>Постоянный электрический ток, сила тока по модулю и направлению</v>
       </c>
       <c r="P2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),701.0)</f>
-        <v>701</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
+        <v>703</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магниты. Правило взаимодействия постоянных магнитов")</f>
@@ -413,20 +413,20 @@
         <v>901</v>
       </c>
       <c r="U2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямолинейное распространение света в однородной среде. Луч света")</f>
-        <v>Прямолинейное распространение света в однородной среде. Луч света</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тень. Полутень ")</f>
+        <v>Тень. Полутень </v>
       </c>
       <c r="V2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
-        <v>1001</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1002.0)</f>
+        <v>1002</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гипотеза Планка о квантах. Формула Планка")</f>
-        <v>Гипотеза Планка о квантах. Формула Планка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Характеристики фотона, его скорость, длина волны, частота, энергия, импульс")</f>
+        <v>Характеристики фотона, его скорость, длина волны, частота, энергия, импульс</v>
       </c>
       <c r="X2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
-        <v>1101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
+        <v>1102</v>
       </c>
       <c r="Y2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод величин в СИ")</f>
@@ -439,76 +439,76 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные понятия механики: система отсчета, материальная точка, поступательное движение")</f>
-        <v>Основные понятия механики: система отсчета, материальная точка, поступательное движение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекции векторных величин на заданные оси")</f>
+        <v>Проекции векторных величин на заданные оси</v>
       </c>
       <c r="B3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плотность вещества. Формула для вычисления плотности")</f>
-        <v>Плотность вещества. Формула для вычисления плотности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равнодействующая сила. Принцип суперпозиции сил")</f>
+        <v>Равнодействующая сила. Принцип суперпозиции сил</v>
       </c>
       <c r="D3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
-        <v>102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Момент силы относительно  точки или оси вращения")</f>
-        <v>Момент силы относительно  точки или оси вращения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вращение тела вокруг оси, правило моментов")</f>
+        <v>Вращение тела вокруг оси, правило моментов</v>
       </c>
       <c r="F3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
+        <v>204</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс системы тел (векторная сумма)")</f>
-        <v>Импульс системы тел (векторная сумма)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения импульса для тела или системы тел")</f>
+        <v>Закон сохранения импульса для тела или системы тел</v>
       </c>
       <c r="H3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
-        <v>302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),303.0)</f>
+        <v>303</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Амплитуда, период и частота колебаний")</f>
-        <v>Амплитуда, период и частота колебаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения колебаний координаты, скорости, ускорения, связь через производные")</f>
+        <v>Уравнения колебаний координаты, скорости, ускорения, связь через производные</v>
       </c>
       <c r="J3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),402.0)</f>
-        <v>402</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.0)</f>
+        <v>405</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловое движение атомов и молекул вещества. Связь скорости теплового движения с температурой")</f>
-        <v>Тепловое движение атомов и молекул вещества. Связь скорости теплового движения с температурой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие молекул, броуновское движение, диффузия")</f>
+        <v>Взаимодействие молекул, броуновское движение, диффузия</v>
       </c>
       <c r="L3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),502.0)</f>
-        <v>502</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503.0)</f>
+        <v>503</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Два вида электрических зарядов. Взаимодействие электрических зарядов. Элементарный электрический заряд")</f>
-        <v>Два вида электрических зарядов. Взаимодействие электрических зарядов. Элементарный электрический заряд</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точечные заряды. Закон Кулона")</f>
+        <v>Точечные заряды. Закон Кулона</v>
       </c>
       <c r="N3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
-        <v>602</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
+        <v>604</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Действия электрического тока. Их проявление и применение")</f>
-        <v>Действия электрического тока. Их проявление и применение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электрическое сопротивление. Зависимость сопротивления однородного проводника от его длины и сечения. Удельное электрическое сопротивление")</f>
+        <v>Электрическое сопротивление. Зависимость сопротивления однородного проводника от его длины и сечения. Удельное электрическое сопротивление</v>
       </c>
       <c r="P3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
-        <v>702</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
+        <v>706</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магнитное поле Земли")</f>
-        <v>Магнитное поле Земли</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магнитное поле, его силовые линии, магнитная индукция")</f>
+        <v>Магнитное поле, его силовые линии, магнитная индукция</v>
       </c>
       <c r="R3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),802.0)</f>
-        <v>802</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),803.0)</f>
+        <v>803</v>
       </c>
       <c r="S3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения, описывающие колебания в колебательном контуре и их связь")</f>
@@ -519,20 +519,20 @@
         <v>902</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тень. Полутень ")</f>
-        <v>Тень. Полутень </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон отражения света")</f>
+        <v>Закон отражения света</v>
       </c>
       <c r="V3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1002.0)</f>
-        <v>1002</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.0)</f>
+        <v>1003</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фотоны. Энергия фотона")</f>
-        <v>Фотоны. Энергия фотона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запирающее напряжение, формула связи с кинетической энергией")</f>
+        <v>Запирающее напряжение, формула связи с кинетической энергией</v>
       </c>
       <c r="X3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
-        <v>1102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
+        <v>1104</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определять характер физического процесса по графику, таблице, формуле")</f>
@@ -545,100 +545,100 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Траектория и путь")</f>
-        <v>Траектория и путь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительность траектории, перемещения, скорости")</f>
+        <v>Относительность траектории, перемещения, скорости</v>
       </c>
       <c r="B4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равнодействующая сила. Принцип суперпозиции сил")</f>
-        <v>Равнодействующая сила. Принцип суперпозиции сил</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Второй закон Ньютона.")</f>
+        <v>Второй закон Ньютона.</v>
       </c>
       <c r="D4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые механизмы.Рычаг. ")</f>
-        <v>Простые механизмы.Рычаг. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Погружение тела в среду, сила Архимеда")</f>
+        <v>Погружение тела в среду, сила Архимеда</v>
       </c>
       <c r="F4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),203.0)</f>
-        <v>203</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения импульса для замкнутой системы тел. Реактивное движение")</f>
-        <v>Закон сохранения импульса для замкнутой системы тел. Реактивное движение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Второй закон Ньютона в импульсном виде, импульс силы")</f>
+        <v>Второй закон Ньютона в импульсном виде, импульс силы</v>
       </c>
       <c r="H4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),303.0)</f>
-        <v>303</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),304.0)</f>
+        <v>304</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула, связывающая частоту и период колебаний")</f>
-        <v>Формула, связывающая частоту и период колебаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Динамическое описание колебаний")</f>
+        <v>Динамическое описание колебаний</v>
       </c>
       <c r="J4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),403.0)</f>
-        <v>403</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Броуновское движение")</f>
-        <v>Броуновское движение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловое равновесие. Равенство температуры системы при тепловом равновесии")</f>
+        <v>Тепловое равновесие. Равенство температуры системы при тепловом равновесии</v>
       </c>
       <c r="L4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503.0)</f>
-        <v>503</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),506.0)</f>
+        <v>506</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения электрического заряда")</f>
-        <v>Закон сохранения электрического заряда</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электрическое поле. Его действие на электрические заряды.Электрическая сила")</f>
+        <v>Электрическое поле. Его действие на электрические заряды.Электрическая сила</v>
       </c>
       <c r="N4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),603.0)</f>
-        <v>603</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
+        <v>605</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постоянный электрический ток: I = const, график I(t) постоянного тока")</f>
-        <v>Постоянный электрический ток: I = const, график I(t) постоянного тока</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Источники тока. Сторонние силы. ЭДС и внутреннее сопротивление источника тока")</f>
+        <v>Источники тока. Сторонние силы. ЭДС и внутреннее сопротивление источника тока</v>
       </c>
       <c r="P4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
-        <v>703</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
+        <v>707</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магнитное поле. Вектор магнитной индукции")</f>
-        <v>Магнитное поле. Вектор магнитной индукции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Принцип суперпозиции магнитных полей")</f>
+        <v>Принцип суперпозиции магнитных полей</v>
       </c>
       <c r="R4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),803.0)</f>
-        <v>803</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),804.0)</f>
+        <v>804</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики гармонических колебаний заряда, силы тока, напряжения на обкладках конденсатора от времени")</f>
-        <v>Графики гармонических колебаний заряда, силы тока, напряжения на обкладках конденсатора от времени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики колебаний заряда, тока, напряжения, энергий от времени")</f>
+        <v>Графики колебаний заряда, тока, напряжения, энергий от времени</v>
       </c>
       <c r="T4" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),903.0)</f>
         <v>903</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон отражения света")</f>
-        <v>Закон отражения света</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плоское зеркало. Построение изображений в плоском зеркале ")</f>
+        <v>Плоское зеркало. Построение изображений в плоском зеркале </v>
       </c>
       <c r="V4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.0)</f>
-        <v>1003</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
+        <v>1004</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс фотона. Связь импульса с энергией, длиной волны и частотой фотона")</f>
-        <v>Импульс фотона. Связь импульса с энергией, длиной волны и частотой фотона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тока насыщения. Ее зависимость от интенсивности света (1 закон Столетова). График зависимости I(U)")</f>
+        <v>Сила тока насыщения. Ее зависимость от интенсивности света (1 закон Столетова). График зависимости I(U)</v>
       </c>
       <c r="X4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
-        <v>1103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
+        <v>1105</v>
       </c>
       <c r="Y4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оценивать по формуле, графику  пропорциональность величин")</f>
@@ -651,76 +651,76 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перемещение")</f>
-        <v>Перемещение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равномерное прямолинейное движение. Скорость равномерного движения. Уравнения перемещения и координаты.")</f>
+        <v>Равномерное прямолинейное движение. Скорость равномерного движения. Уравнения перемещения и координаты.</v>
       </c>
       <c r="B5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инерциальные системы отсчёта. Принцип относительности Галилея. Неинерциальные системы отсчета")</f>
-        <v>Инерциальные системы отсчёта. Принцип относительности Галилея. Неинерциальные системы отсчета</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие тел. Третий закон Ньютона")</f>
+        <v>Взаимодействие тел. Третий закон Ньютона</v>
       </c>
       <c r="D5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Условия равновесия твёрдого тела в ИСО")</f>
-        <v>Условия равновесия твёрдого тела в ИСО</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Условие плавания тела")</f>
+        <v>Условие плавания тела</v>
       </c>
       <c r="F5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),204.0)</f>
-        <v>204</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
+        <v>210</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь импульса силы с изменением  импульса тела. (второй закон Ньютона через изменение импульса)")</f>
-        <v>Связь импульса силы с изменением  импульса тела. (второй закон Ньютона через изменение импульса)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа силы ")</f>
+        <v>Работа силы </v>
       </c>
       <c r="H5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),304.0)</f>
-        <v>304</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гармонические колебания, циклическая частота, фаза колебаний")</f>
-        <v>Гармонические колебания, циклическая частота, фаза колебаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Превращение энергии при колебаниях. Энергетическое описание (закон сохранения полной механической энергии)")</f>
+        <v>Превращение энергии при колебаниях. Энергетическое описание (закон сохранения полной механической энергии)</v>
       </c>
       <c r="J5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
+        <v>408</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диффузия")</f>
-        <v>Диффузия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное уравнение МКТ")</f>
+        <v>Основное уравнение МКТ</v>
       </c>
       <c r="L5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),504.0)</f>
-        <v>504</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),508.0)</f>
+        <v>508</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точечные заряды. Закон Кулона")</f>
-        <v>Точечные заряды. Закон Кулона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряжённость электрического поля")</f>
+        <v>Напряжённость электрического поля</v>
       </c>
       <c r="N5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
-        <v>604</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
+        <v>606</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряжение")</f>
-        <v>Напряжение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Ома для участка цепи")</f>
+        <v>Закон Ома для участка цепи</v>
       </c>
       <c r="P5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),704.0)</f>
-        <v>704</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),708.0)</f>
+        <v>708</v>
       </c>
       <c r="Q5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Принцип суперпозиции магнитных полей")</f>
-        <v>Принцип суперпозиции магнитных полей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Магнитное поле проводника с током, правило правой руки")</f>
+        <v> Магнитное поле проводника с током, правило правой руки</v>
       </c>
       <c r="R5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),804.0)</f>
-        <v>804</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),807.0)</f>
+        <v>807</v>
       </c>
       <c r="S5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Собственная частота колебательного контура. Формула Томсона")</f>
@@ -731,20 +731,20 @@
         <v>904</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плоское зеркало. Построение изображений в плоском зеркале ")</f>
-        <v>Плоское зеркало. Построение изображений в плоском зеркале </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы преломления света (закон Снеллиуса)")</f>
+        <v>Законы преломления света (закон Снеллиуса)</v>
       </c>
       <c r="V5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
-        <v>1004</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
+        <v>1005</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фотоэффект. Опыты Столетова")</f>
-        <v>Фотоэффект. Опыты Столетова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость кинетической энергии от частоты падающего света (2 закон Столетова). График зависимости кинетической энергии от частоты")</f>
+        <v>Зависимость кинетической энергии от частоты падающего света (2 закон Столетова). График зависимости кинетической энергии от частоты</v>
       </c>
       <c r="X5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
-        <v>1104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
+        <v>1106</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Снимать показания со шкалы прибора, представлять результаты измерений с учётом их погрешностей")</f>
@@ -757,76 +757,76 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекции векторных величин на заданные оси")</f>
-        <v>Проекции векторных величин на заданные оси</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя путевая скорость")</f>
+        <v>Средняя путевая скорость</v>
       </c>
       <c r="B6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Явление инерции. Первый закон Ньютона")</f>
-        <v>Явление инерции. Первый закон Ньютона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила трения покоя и скольжения, закон Кулона-Амонтона")</f>
+        <v>Сила трения покоя и скольжения, закон Кулона-Амонтона</v>
       </c>
       <c r="D6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Паскаля")</f>
-        <v>Закон Паскаля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сообщающиеся сосуды")</f>
+        <v>Сообщающиеся сосуды</v>
       </c>
       <c r="F6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа силы ")</f>
-        <v>Работа силы </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механическая мощность")</f>
+        <v>Механическая мощность</v>
       </c>
       <c r="H6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.0)</f>
+        <v>308</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение гармонических колебаний")</f>
-        <v>Уравнение гармонических колебаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь амплитуд координат, скорости, ускорения друг с другом")</f>
+        <v>Связь амплитуд координат, скорости, ускорения друг с другом</v>
       </c>
       <c r="J6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),405.0)</f>
-        <v>405</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие молекул. Смачивание")</f>
-        <v>Взаимодействие молекул. Смачивание</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютная температура. Связь шкал Кельвина и Цельсия")</f>
+        <v>Абсолютная температура. Связь шкал Кельвина и Цельсия</v>
       </c>
       <c r="L6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),505.0)</f>
-        <v>505</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
+        <v>509</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электрическое поле. Его действие на электрические заряды.Электрическая сила")</f>
-        <v>Электрическое поле. Его действие на электрические заряды.Электрическая сила</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородное и неоднородное поле. Поле между заряженными пластинами. Картины линий этих полей")</f>
+        <v>Однородное и неоднородное поле. Поле между заряженными пластинами. Картины линий этих полей</v>
       </c>
       <c r="N6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
-        <v>605</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
+        <v>609</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тока")</f>
-        <v>Сила тока</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости I(U), I(R), q(t), I(t), наклон графика, площадь под ним")</f>
+        <v>Графики зависимости I(U), I(R), q(t), I(t), наклон графика, площадь под ним</v>
       </c>
       <c r="P6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),705.0)</f>
-        <v>705</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),709.0)</f>
+        <v>709</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Линии магнитного поля. Картина линий поля полосового и подковообразного постоянных магнитов")</f>
-        <v>Линии магнитного поля. Картина линий поля полосового и подковообразного постоянных магнитов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие параллельных проводников")</f>
+        <v>Взаимодействие параллельных проводников</v>
       </c>
       <c r="R6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),805.0)</f>
-        <v>805</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),810.0)</f>
+        <v>810</v>
       </c>
       <c r="S6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь периода колебаний энергий и периода колебаний колебательного контура")</f>
@@ -837,20 +837,20 @@
         <v>905</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы преломления света (закон Снеллиуса)")</f>
-        <v>Законы преломления света (закон Снеллиуса)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютный и относительный показатель преломления")</f>
+        <v>Абсолютный и относительный показатель преломления</v>
       </c>
       <c r="V6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
-        <v>1005</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1006.0)</f>
+        <v>1006</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тока насыщения. Ее зависимость от интенсивности света (1 закон Столетова). График зависимости I(U)")</f>
-        <v>Сила тока насыщения. Ее зависимость от интенсивности света (1 закон Столетова). График зависимости I(U)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Красная граница фотоэффекта. Условие начала фотоэффекта ")</f>
+        <v>Красная граница фотоэффекта. Условие начала фотоэффекта </v>
       </c>
       <c r="X6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
-        <v>1105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
+        <v>1107</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь находить погрешности прямых и косвенных измерений величин. Записывать результат с учетом погрешности")</f>
@@ -863,76 +863,76 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классический закон сложения скоростей")</f>
-        <v>Классический закон сложения скоростей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь перемещения с координатами начальной и конечной точки ")</f>
+        <v>Связь перемещения с координатами начальной и конечной точки </v>
       </c>
       <c r="B7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Второй закон Ньютона.")</f>
-        <v>Второй закон Ньютона.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Независимость силы трения от площади соприкасающихся поверхностей")</f>
+        <v>Независимость силы трения от площади соприкасающихся поверхностей</v>
       </c>
       <c r="D7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гидравлическая машина. Гидравлический пресс.")</f>
-        <v>Гидравлическая машина. Гидравлический пресс.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неподвижный и подвижный блок, системы блоков")</f>
+        <v>Неподвижный и подвижный блок, системы блоков</v>
       </c>
       <c r="F7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
-        <v>206</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость работы силы от угла между вектором силы и перемещения")</f>
-        <v>Зависимость работы силы от угла между вектором силы и перемещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия материальной точки")</f>
+        <v>Кинетическая энергия материальной точки</v>
       </c>
       <c r="H7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),306.0)</f>
-        <v>306</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь уравнений колебаний координаты, скорости, ускорения (через производные)")</f>
-        <v>Связь уравнений колебаний координаты, скорости, ускорения (через производные)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики гармонических колебаний координаты, скорости, ускорения, силы, энергии")</f>
+        <v>Графики гармонических колебаний координаты, скорости, ускорения, силы, энергии</v>
       </c>
       <c r="J7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),406.0)</f>
-        <v>406</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.0)</f>
+        <v>411</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловое равновесие. Равенство температуры системы при тепловом равновесии")</f>
-        <v>Тепловое равновесие. Равенство температуры системы при тепловом равновесии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь температуры газа со средней кинетической энергией поступательного теплового движения его частиц")</f>
+        <v>Связь температуры газа со средней кинетической энергией поступательного теплового движения его частиц</v>
       </c>
       <c r="L7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),506.0)</f>
-        <v>506</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),510.0)</f>
+        <v>510</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряжённость электрического поля")</f>
-        <v>Напряжённость электрического поля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряжение (разность потенциалов) в однородном и неоднородном электрическом поле")</f>
+        <v>Напряжение (разность потенциалов) в однородном и неоднородном электрическом поле</v>
       </c>
       <c r="N7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
-        <v>606</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
+        <v>611</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электрическое сопротивление. Зависимость сопротивления однородного проводника от его длины и сечения. Удельное электрическое сопротивление")</f>
-        <v>Электрическое сопротивление. Зависимость сопротивления однородного проводника от его длины и сечения. Удельное электрическое сопротивление</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Ома для полной (замкнутой) электрической цепи")</f>
+        <v>Закон Ома для полной (замкнутой) электрической цепи</v>
       </c>
       <c r="P7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
-        <v>706</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),710.0)</f>
+        <v>710</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Действие поля проводника с током на магнитную стрелку (опыт Эрстеда)")</f>
-        <v>Действие поля проводника с током на магнитную стрелку (опыт Эрстеда)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила Лоренца для частицы и сила Ампера для проводника")</f>
+        <v>Сила Лоренца для частицы и сила Ампера для проводника</v>
       </c>
       <c r="R7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),806.0)</f>
-        <v>806</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),811.0)</f>
+        <v>811</v>
       </c>
       <c r="S7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь амплитуды заряда конденсатора с амплитудой силы тока")</f>
@@ -943,20 +943,20 @@
         <v>906</v>
       </c>
       <c r="U7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютный и относительный показатель преломления")</f>
-        <v>Абсолютный и относительный показатель преломления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ход лучей в плоскопараллельной пластине")</f>
+        <v>Ход лучей в плоскопараллельной пластине</v>
       </c>
       <c r="V7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1006.0)</f>
-        <v>1006</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1008.0)</f>
+        <v>1008</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость кинетической энергии от частоты падающего света (2 закон Столетова). График зависимости кинетической энергии от частоты. Задерживающее напряжение")</f>
-        <v>Зависимость кинетической энергии от частоты падающего света (2 закон Столетова). График зависимости кинетической энергии от частоты. Задерживающее напряжение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа выхода электронов из металла")</f>
+        <v>Работа выхода электронов из металла</v>
       </c>
       <c r="X7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
-        <v>1106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
+        <v>1108</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Снимать необходимые данные с графиков, таблиц, диаграмм")</f>
@@ -969,100 +969,100 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительность траектории, перемещения, скорости")</f>
-        <v>Относительность траектории, перемещения, скорости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение расстояния между телами по  разности координат")</f>
+        <v>Нахождение расстояния между телами по  разности координат</v>
       </c>
       <c r="B8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сонаправленность вектора ускорения тела и вектора силы, действующей на тело ")</f>
-        <v>Сонаправленность вектора ускорения тела и вектора силы, действующей на тело </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деформация тела, сила упругости, закон Гука")</f>
+        <v>Деформация тела, сила упругости, закон Гука</v>
       </c>
       <c r="D8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для определения выталкивающей силы, действующей на тело, погружённое в жидкость или газ")</f>
-        <v>Формула для определения выталкивающей силы, действующей на тело, погружённое в жидкость или газ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление столба жидкости, атмосферное давление")</f>
+        <v>Давление столба жидкости, атмосферное давление</v>
       </c>
       <c r="F8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),207.0)</f>
-        <v>207</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа силы тяжести. Независимость работы силы тяжести от формы траектории")</f>
-        <v>Работа силы тяжести. Независимость работы силы тяжести от формы траектории</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о кинетической энергии")</f>
+        <v>Теорема о кинетической энергии</v>
       </c>
       <c r="H8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),307.0)</f>
-        <v>307</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),311.0)</f>
+        <v>311</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Динамическое описание колебаний")</f>
-        <v>Динамическое описание колебаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Период колебаний нитяного и пружинного маятника")</f>
+        <v>Период колебаний нитяного и пружинного маятника</v>
       </c>
       <c r="J8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Модель идеального газа в МКТ")</f>
-        <v>Модель идеального газа в МКТ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Микропараметры: количество вещества, концентрация, масса молекулы, молярная масса")</f>
+        <v>Микропараметры: количество вещества, концентрация, масса молекулы, молярная масса</v>
       </c>
       <c r="L8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),507.0)</f>
-        <v>507</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
+        <v>511</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряженность поля точечного заряда")</f>
-        <v>Напряженность поля точечного заряда</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциал электростатического поля")</f>
+        <v>Потенциал электростатического поля</v>
       </c>
       <c r="N8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
-        <v>607</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
+        <v>612</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Источники тока. Сторонние силы. ЭДС и внутреннее сопротивление источника тока")</f>
-        <v>Источники тока. Сторонние силы. ЭДС и внутреннее сопротивление источника тока</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Короткое замыкание. Сила тока короткого замыкания")</f>
+        <v>Короткое замыкание. Сила тока короткого замыкания</v>
       </c>
       <c r="P8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
-        <v>707</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),711.0)</f>
+        <v>711</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магнитное поле проводника с током. Правило буравчика")</f>
-        <v>Магнитное поле проводника с током. Правило буравчика</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило левой руки для проводника с током в магнитном поле")</f>
+        <v>Правило левой руки для проводника с током в магнитном поле</v>
       </c>
       <c r="R8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),807.0)</f>
-        <v>807</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),812.0)</f>
+        <v>812</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Превращение энергии в идеальном  колебательном контуре. Графики энергии от времени.")</f>
-        <v>Превращение энергии в идеальном  колебательном контуре. Графики энергии от времени.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения энергии в идеальном колебательном контуре")</f>
+        <v>Закон сохранения энергии в идеальном колебательном контуре</v>
       </c>
       <c r="T8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),907.0)</f>
-        <v>907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),908.0)</f>
+        <v>908</v>
       </c>
       <c r="U8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ход лучей в призме")</f>
-        <v>Ход лучей в призме</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное внутреннее отражение. Предельный угол полного внутреннего отражения")</f>
+        <v>Полное внутреннее отражение. Предельный угол полного внутреннего отражения</v>
       </c>
       <c r="V8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1007.0)</f>
-        <v>1007</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1009.0)</f>
+        <v>1009</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Красная граница фотоэффекта. Условие начала фотоэффекта ")</f>
-        <v>Красная граница фотоэффекта. Условие начала фотоэффекта </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Эйнштейна для фотоэффекта")</f>
+        <v>Уравнение Эйнштейна для фотоэффекта</v>
       </c>
       <c r="X8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
-        <v>1107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
+        <v>1109</v>
       </c>
       <c r="Y8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объяснять результаты экспериментов по картинке опыта")</f>
@@ -1075,100 +1075,100 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равномерное прямолинейное движение. Скорость равномерного движения. Уравнения перемещения и координаты.")</f>
-        <v>Равномерное прямолинейное движение. Скорость равномерного движения. Уравнения перемещения и координаты.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равномерного   движения и его геометрический смысл (нахождение пути по площади фигуры под графиком)")</f>
+        <v>График скорости равномерного   движения и его геометрический смысл (нахождение пути по площади фигуры под графиком)</v>
       </c>
       <c r="B9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие тел. Третий закон Ньютона")</f>
-        <v>Взаимодействие тел. Третий закон Ньютона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение пружин")</f>
+        <v>Последовательное и параллельное соединение пружин</v>
       </c>
       <c r="D9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Архимедова сила через разность веса в воздухе и жидкости")</f>
-        <v>Архимедова сила через разность веса в воздухе и жидкости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центр тяжести однородного тела")</f>
+        <v>Центр тяжести однородного тела</v>
       </c>
       <c r="F9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
-        <v>208</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механическая мощность")</f>
-        <v>Механическая мощность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциальная энергия тела")</f>
+        <v>Потенциальная энергия тела</v>
       </c>
       <c r="H9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.0)</f>
-        <v>308</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Превращение энергии при колебаниях. Энергетическое описание (закон сохранения полной механической энергии)")</f>
-        <v>Превращение энергии при колебаниях. Энергетическое описание (закон сохранения полной механической энергии)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь частоты (периода) колебаний с частотой (периодом) потенциальной и кинетической энергии")</f>
+        <v>Связь частоты (периода) колебаний с частотой (периодом) потенциальной и кинетической энергии</v>
       </c>
       <c r="J9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
-        <v>408</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.0)</f>
+        <v>414</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное уравнение МКТ")</f>
-        <v>Основное уравнение МКТ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь давления с концентрацией и температурой")</f>
+        <v>Связь давления с концентрацией и температурой</v>
       </c>
       <c r="L9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),508.0)</f>
-        <v>508</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
+        <v>512</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График (таблица) зависимости напряженности точечного заряда от расстояния от заряда")</f>
-        <v>График (таблица) зависимости напряженности точечного заряда от расстояния от заряда</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Принцип суперпозиции электрических полей")</f>
+        <v>Принцип суперпозиции электрических полей</v>
       </c>
       <c r="N9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
-        <v>608</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),614.0)</f>
+        <v>614</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Ома для участка цепи")</f>
-        <v>Закон Ома для участка цепи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реостат. Принцип действия реостата")</f>
+        <v>Реостат. Принцип действия реостата</v>
       </c>
       <c r="P9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),708.0)</f>
-        <v>708</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
+        <v>713</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Картина линий поля длинного прямого проводника и замкнутого кольцевого проводника, катушки с током")</f>
-        <v>Картина линий поля длинного прямого проводника и замкнутого кольцевого проводника, катушки с током</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило левой руки для движущейся заряженной частицы")</f>
+        <v>Правило левой руки для движущейся заряженной частицы</v>
       </c>
       <c r="R9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),808.0)</f>
-        <v>808</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),814.0)</f>
+        <v>814</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения энергии в идеальном колебательном контуре")</f>
-        <v>Закон сохранения энергии в идеальном колебательном контуре</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынужденные электромагнитные колебания, явление резонанса")</f>
+        <v>Вынужденные электромагнитные колебания, явление резонанса</v>
       </c>
       <c r="T9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),908.0)</f>
-        <v>908</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),909.0)</f>
+        <v>909</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ход лучей в плоскопараллельной пластине")</f>
-        <v>Ход лучей в плоскопараллельной пластине</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скорость, длина волны и частота света при переходе из одной среды в другую")</f>
+        <v>Скорость, длина волны и частота света при переходе из одной среды в другую</v>
       </c>
       <c r="V9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1008.0)</f>
-        <v>1008</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1010.0)</f>
+        <v>1010</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа выхода электронов из металла")</f>
-        <v>Работа выхода электронов из металла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина волны де Бройля движущейся частицы")</f>
+        <v>Длина волны де Бройля движущейся частицы</v>
       </c>
       <c r="X9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
-        <v>1108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
+        <v>1111</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с векторами. Правило параллелограмма (треугольника) при сложении (вычитании) векторов")</f>
@@ -1181,100 +1181,94 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неравномерное движение. Средняя путевая скорость")</f>
-        <v>Неравномерное движение. Средняя путевая скорость</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График координаты, перемещения, пути, ускорения при равномерном движении")</f>
+        <v>График координаты, перемещения, пути, ускорения при равномерном движении</v>
       </c>
       <c r="B10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трение скольжения. Формула для вычисления модуля силы трения скольжения")</f>
-        <v>Трение скольжения. Формула для вычисления модуля силы трения скольжения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирное тяготение. Закон всемирного тяготения")</f>
+        <v>Всемирное тяготение. Закон всемирного тяготения</v>
       </c>
       <c r="D10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
-        <v>109</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Независимость выталкивающей силы от рода вещества и глубины погружения тела")</f>
-        <v>Независимость выталкивающей силы от рода вещества и глубины погружения тела</v>
-      </c>
-      <c r="F10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механическая мощность через скорость и силу")</f>
-        <v>Механическая мощность через скорость и силу</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия. Полная механическая энергия: E = Eк + Eп")</f>
+        <v>Энергия. Полная механическая энергия: E = Eк + Eп</v>
       </c>
       <c r="H10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь амплитуды колебаний исходной величины с амплитудами колебаний ее скорости")</f>
-        <v>Связь амплитуды колебаний исходной величины с амплитудами колебаний ее скорости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынужденные колебания, резонанс, график амплитуды от частоты")</f>
+        <v>Вынужденные колебания, резонанс, график амплитуды от частоты</v>
       </c>
       <c r="J10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютная температура. Связь шкал Кельвина и Цельсия")</f>
-        <v>Абсолютная температура. Связь шкал Кельвина и Цельсия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Менделеева-Клапейрона")</f>
+        <v>Уравнение Менделеева-Клапейрона</v>
       </c>
       <c r="L10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
-        <v>509</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородное и неоднородное поле. Поле между заряженными пластинами. Картины линий этих полей")</f>
-        <v>Однородное и неоднородное поле. Поле между заряженными пластинами. Картины линий этих полей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводники в электростатическом поле. Электростатическая индукция. Электростатическая защита")</f>
+        <v>Проводники в электростатическом поле. Электростатическая индукция. Электростатическая защита</v>
       </c>
       <c r="N10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
-        <v>609</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),616.0)</f>
+        <v>616</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости I(U), I(R), q(t)")</f>
-        <v>График зависимости I(U), I(R), q(t)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение электрических схем, знание разных приборов")</f>
+        <v>Чтение электрических схем, знание разных приборов</v>
       </c>
       <c r="P10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),709.0)</f>
-        <v>709</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
+        <v>714</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило правой руки для соленоида и витка с током")</f>
-        <v>Правило правой руки для соленоида и витка с током</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость траектории движения частицы от направления вектора скорости по отношению к магнитным линиям")</f>
+        <v>Зависимость траектории движения частицы от направления вектора скорости по отношению к магнитным линиям</v>
       </c>
       <c r="R10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),809.0)</f>
-        <v>809</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),815.0)</f>
+        <v>815</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынужденные электромагнитные колебания (переменный ток)")</f>
-        <v>Вынужденные электромагнитные колебания (переменный ток)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Передача и потребление электрической энергии. Трансформатор. Связь числа витков с напряжением (ЭДС) на концах обмоток трансформатора.")</f>
+        <v>Передача и потребление электрической энергии. Трансформатор. Связь числа витков с напряжением (ЭДС) на концах обмоток трансформатора.</v>
       </c>
       <c r="T10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),909.0)</f>
-        <v>909</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
+        <v>911</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное внутреннее отражение. Предельный угол полного внутреннего отражения")</f>
-        <v>Полное внутреннее отражение. Предельный угол полного внутреннего отражения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Собирающие и рассеивающие линзы. Тонкая линза")</f>
+        <v>Собирающие и рассеивающие линзы. Тонкая линза</v>
       </c>
       <c r="V10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1009.0)</f>
-        <v>1009</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1011.0)</f>
+        <v>1011</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Эйнштейна для фотоэффекта")</f>
-        <v>Уравнение Эйнштейна для фотоэффекта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Лебедева. Давление света")</f>
+        <v>Опыты Лебедева. Давление света</v>
       </c>
       <c r="X10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
-        <v>1109</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
+        <v>1113</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цена деления и погрешность приборов. Снятие показаний. Двухшкальные приборы")</f>
@@ -1287,100 +1281,94 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь перемещения с координатами начальной и конечной точки ")</f>
-        <v>Связь перемещения с координатами начальной и конечной точки </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция (модуль) скорости по графику координаты")</f>
+        <v>Проекция (модуль) скорости по графику координаты</v>
       </c>
       <c r="B11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
-        <v>10</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Независимость силы трения от площади соприкасающихся поверхностей")</f>
-        <v>Независимость силы трения от площади соприкасающихся поверхностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тяжести")</f>
+        <v>Сила тяжести</v>
       </c>
       <c r="D11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Условие плавания тела")</f>
-        <v>Условие плавания тела</v>
-      </c>
-      <c r="F11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
-        <v>210</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия материальной точки")</f>
-        <v>Кинетическая энергия материальной точки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь работы силы тяжести с изменением потенциальной энергии")</f>
+        <v>Связь работы силы тяжести с изменением потенциальной энергии</v>
       </c>
       <c r="H11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),315.0)</f>
+        <v>315</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь амплитуды колебаний исходной величины с амплитудами колебаний ее ускорения")</f>
-        <v>Связь амплитуды колебаний исходной величины с амплитудами колебаний ее ускорения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Амплитуда и период по таблицам и графикам х(t), V(t), a(t)")</f>
+        <v>Амплитуда и период по таблицам и графикам х(t), V(t), a(t)</v>
       </c>
       <c r="J11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь температуры газа со средней кинетической энергией поступательного теплового движения его частиц")</f>
-        <v>Связь температуры газа со средней кинетической энергией поступательного теплового движения его частиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выражение для внутренней энергии одноатомного идеального газа")</f>
+        <v>Выражение для внутренней энергии одноатомного идеального газа</v>
       </c>
       <c r="L11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),510.0)</f>
-        <v>510</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
+        <v>515</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциальность электростатического поля (независимость работы поля от формы траектории)")</f>
-        <v>Потенциальность электростатического поля (независимость работы поля от формы траектории)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диэлектрики в электростатическом поле. Поляризация диэлектриков")</f>
+        <v>Диэлектрики в электростатическом поле. Поляризация диэлектриков</v>
       </c>
       <c r="N11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
-        <v>610</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
+        <v>618</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Ома для полной (замкнутой) электрической цепи")</f>
-        <v>Закон Ома для полной (замкнутой) электрической цепи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение приборов с сопротивлением")</f>
+        <v>Последовательное и параллельное соединение приборов с сопротивлением</v>
       </c>
       <c r="P11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),710.0)</f>
-        <v>710</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
+        <v>715</v>
       </c>
       <c r="Q11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодействие параллельных проводников")</f>
-        <v>Взаимодействие параллельных проводников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы движения заряженной частицы в электромагнитном поле")</f>
+        <v>Законы движения заряженной частицы в электромагнитном поле</v>
       </c>
       <c r="R11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),810.0)</f>
-        <v>810</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),817.0)</f>
+        <v>817</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Резонанс в электрической цепи")</f>
-        <v>Резонанс в электрической цепи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение характеристик цепи по таблицам I(t), для цепи постоянного тока содержащую катушку индуктивности (момент замыкания, размыкания цепи).")</f>
+        <v>Определение характеристик цепи по таблицам I(t), для цепи постоянного тока содержащую катушку индуктивности (момент замыкания, размыкания цепи).</v>
       </c>
       <c r="T11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),910.0)</f>
-        <v>910</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
+        <v>912</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соотношение частот и соотношение длин волн при переходе монохроматического света через границу раздела двух оптических сред")</f>
-        <v>Соотношение частот и соотношение длин волн при переходе монохроматического света через границу раздела двух оптических сред</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фокусное расстояние и оптическая сила тонкой линзы, ее строение")</f>
+        <v>Фокусное расстояние и оптическая сила тонкой линзы, ее строение</v>
       </c>
       <c r="V11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1010.0)</f>
-        <v>1010</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1012.0)</f>
+        <v>1012</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь электронвольт с джоулями")</f>
-        <v>Связь электронвольт с джоулями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постулаты Бора")</f>
+        <v>Постулаты Бора</v>
       </c>
       <c r="X11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
-        <v>1110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
+        <v>1116</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понимание текстов физического содержания. Умение находить ответы на вопросы в тексте")</f>
@@ -1393,100 +1381,94 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение расстояния между телами по  разности координат")</f>
-        <v>Нахождение расстояния между телами по  разности координат</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равноускоренное движение. Вектор ускорения.")</f>
+        <v>Равноускоренное движение. Вектор ускорения.</v>
       </c>
       <c r="B12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости силы трения от силы нормального давления ")</f>
-        <v>График зависимости силы трения от силы нормального давления </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение свободного падения на небесных телах")</f>
+        <v>Ускорение свободного падения на небесных телах</v>
       </c>
       <c r="D12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плавание судов, осадка и воздухоплавание")</f>
-        <v>Плавание судов, осадка и воздухоплавание</v>
-      </c>
-      <c r="F12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о кинетической энергии")</f>
-        <v>Теорема о кинетической энергии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциальная энергия упруго деформированного тела")</f>
+        <v>Потенциальная энергия упруго деформированного тела</v>
       </c>
       <c r="H12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),311.0)</f>
-        <v>311</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
+        <v>316</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики гармонических колебаний координаты, скорости, ускорения, силы, энергии")</f>
-        <v>Графики гармонических колебаний координаты, скорости, ускорения, силы, энергии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Механические волны, длина волны, скорость, период, формула связи")</f>
+        <v> Механические волны, длина волны, скорость, период, формула связи</v>
       </c>
       <c r="J12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.0)</f>
-        <v>411</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
+        <v>421</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Микропараметры: количество вещества, концентрация, масса молекулы, молярная масса")</f>
-        <v>Микропараметры: количество вещества, концентрация, масса молекулы, молярная масса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Дальтона для давления смеси разреженных газов")</f>
+        <v>Закон Дальтона для давления смеси разреженных газов</v>
       </c>
       <c r="L12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
-        <v>511</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
+        <v>516</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разность потенциалов и напряжение")</f>
-        <v>Разность потенциалов и напряжение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конденсатор. Электроёмкость конденсатора.")</f>
+        <v>Конденсатор. Электроёмкость конденсатора.</v>
       </c>
       <c r="N12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
-        <v>611</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
+        <v>620</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Короткое замыкание. Сила тока короткого замыкания")</f>
-        <v>Короткое замыкание. Сила тока короткого замыкания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа и мощность электрического тока")</f>
+        <v>Работа и мощность электрического тока</v>
       </c>
       <c r="P12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),711.0)</f>
-        <v>711</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
+        <v>718</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила Ампера")</f>
-        <v>Сила Ампера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поток вектора магнитной индукции")</f>
+        <v>Поток вектора магнитной индукции</v>
       </c>
       <c r="R12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),811.0)</f>
-        <v>811</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
+        <v>820</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Передача и потребление электрической энергии. Трансформатор. Связь числа витков с напряжением (ЭДС) на концах обмоток трансформатора.")</f>
-        <v>Передача и потребление электрической энергии. Трансформатор. Связь числа витков с напряжением (ЭДС) на концах обмоток трансформатора.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электромагнитные волны, связь длины волны, скорости, периода")</f>
+        <v>Электромагнитные волны, связь длины волны, скорости, периода</v>
       </c>
       <c r="T12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
-        <v>911</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
+        <v>913</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Собирающие и рассеивающие линзы. Тонкая линза")</f>
-        <v>Собирающие и рассеивающие линзы. Тонкая линза</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула тонкой линзы. Увеличение линзы")</f>
+        <v>Формула тонкой линзы. Увеличение линзы</v>
       </c>
       <c r="V12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1011.0)</f>
-        <v>1011</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1013.0)</f>
+        <v>1013</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина волны де Бройля движущейся частицы")</f>
-        <v>Длина волны де Бройля движущейся частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы")</f>
+        <v>Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы</v>
       </c>
       <c r="X12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
-        <v>1111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
+        <v>1117</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понимание физических основ и принципов действия (работы) машин и механизмов, средств передвижения и связи, бытовых приборов")</f>
@@ -1499,100 +1481,82 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равномерного   движения и его геометрический смысл (нахождение пути по площади фигуры под графиком)")</f>
-        <v>График скорости равномерного   движения и его геометрический смысл (нахождение пути по площади фигуры под графиком)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для проекции ускорения при равноускоренном прямолинейном движении")</f>
+        <v>Формула для проекции ускорения при равноускоренном прямолинейном движении</v>
       </c>
       <c r="B13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила трения покоя: Fтр ≤ μN, коэффициент трения")</f>
-        <v>Сила трения покоя: Fтр ≤ μN, коэффициент трения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение небесных тел и их искусственных спутников")</f>
+        <v>Движение небесных тел и их искусственных спутников</v>
       </c>
       <c r="D13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Условие равновесия тела под действием приложенных сил")</f>
-        <v>Условие равновесия тела под действием приложенных сил</v>
-      </c>
-      <c r="F13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциальная энергия тела")</f>
-        <v>Потенциальная энергия тела</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Замкнутая система. Закон  сохранения полной механической энергии")</f>
+        <v>Замкнутая система. Закон  сохранения полной механической энергии</v>
       </c>
       <c r="H13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Период малых свободных колебаний математического маятника")</f>
-        <v>Период малых свободных колебаний математического маятника</v>
-      </c>
-      <c r="J13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь давления с концентрацией и температурой")</f>
-        <v>Связь давления с концентрацией и температурой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изопроцессы в разреженном газе с постоянным числом частиц N (газовые законы)")</f>
+        <v>Изопроцессы в разреженном газе с постоянным числом частиц N (газовые законы)</v>
       </c>
       <c r="L13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
-        <v>512</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
+        <v>517</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциал электростатического поля")</f>
-        <v>Потенциал электростатического поля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение конденсаторов")</f>
+        <v>Последовательное и параллельное соединение конденсаторов</v>
       </c>
       <c r="N13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
-        <v>612</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
+        <v>622</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости I(t), геометрический смысл")</f>
-        <v>График зависимости I(t), геометрический смысл</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Джоуля-Ленца")</f>
+        <v>Закон Джоуля-Ленца</v>
       </c>
       <c r="P13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
-        <v>712</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
+        <v>720</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило левой руки для проводника с током в магнитном поле")</f>
-        <v>Правило левой руки для проводника с током в магнитном поле</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ЭДС индукции. Закон электромагнитной индукции Фарадея.")</f>
+        <v>ЭДС индукции. Закон электромагнитной индукции Фарадея.</v>
       </c>
       <c r="R13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),812.0)</f>
-        <v>812</v>
-      </c>
-      <c r="S13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение характеристик цепи по таблицам I(t), для цепи постоянного тока содержащую катушку индуктивности (момент замыкания, размыкания цепи).")</f>
-        <v>Определение характеристик цепи по таблицам I(t), для цепи постоянного тока содержащую катушку индуктивности (момент замыкания, размыкания цепи).</v>
-      </c>
-      <c r="T13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
-        <v>912</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),821.0)</f>
+        <v>821</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Фокусное расстояние и оптическая сила тонкой линзы, ее строение")</f>
-        <v>Фокусное расстояние и оптическая сила тонкой линзы, ее строение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение изображений точки и отрезка прямой в собирающих и рассеивающих линзах и их системах")</f>
+        <v>Построение изображений точки и отрезка прямой в собирающих и рассеивающих линзах и их системах</v>
       </c>
       <c r="V13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1012.0)</f>
-        <v>1012</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1014.0)</f>
+        <v>1014</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Корпускулярно-волновой дуализм")</f>
-        <v>Корпускулярно-волновой дуализм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода")</f>
+        <v>Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода</v>
       </c>
       <c r="X13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1112.0)</f>
-        <v>1112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
+        <v>1119</v>
       </c>
       <c r="Y13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция вектора на ось.  Сложение и вычитание проекций векторов")</f>
@@ -1605,100 +1569,82 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График перемещения равномерного движения.")</f>
-        <v>График перемещения равномерного движения.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке")</f>
+        <v>Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке</v>
       </c>
       <c r="B14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деформация тела. Упругие и неупругие деформации")</f>
-        <v>Деформация тела. Упругие и неупругие деформации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая и вторая космическая скорость, их формулы")</f>
+        <v>Первая и вторая космическая скорость, их формулы</v>
       </c>
       <c r="D14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сообщающиеся сосуды")</f>
-        <v>Сообщающиеся сосуды</v>
-      </c>
-      <c r="F14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для вычисления потенциальной энергии тела поднятого над нулевым уровнем")</f>
-        <v>Формула для вычисления потенциальной энергии тела поднятого над нулевым уровнем</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости кинетической, потенциальной и полной механической энергии от времени")</f>
+        <v>Графики зависимости кинетической, потенциальной и полной механической энергии от времени</v>
       </c>
       <c r="H14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Период малых свободных колебаний пружинного маятника")</f>
-        <v>Период малых свободных колебаний пружинного маятника</v>
-      </c>
-      <c r="J14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
+        <v>319</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение Менделеева-Клапейрона")</f>
-        <v>Уравнение Менделеева-Клапейрона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графическое представление изопроцессов на pV-, pT- и VT- диаграммах")</f>
+        <v>Графическое представление изопроцессов на pV-, pT- и VT- диаграммах</v>
       </c>
       <c r="L14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
-        <v>513</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
+        <v>518</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь напряжённости поля и разности потенциалов для однородного электростатического поля")</f>
-        <v>Связь напряжённости поля и разности потенциалов для однородного электростатического поля</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия заряженного конденсатора")</f>
+        <v>Энергия заряженного конденсатора</v>
       </c>
       <c r="N14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),613.0)</f>
-        <v>613</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
+        <v>624</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Реостат. Принцип действия реостата")</f>
-        <v>Реостат. Принцип действия реостата</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мощность и КПД источника тока")</f>
+        <v>Мощность и КПД источника тока</v>
       </c>
       <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
+        <v>721</v>
       </c>
       <c r="Q14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Действие магнитного поля на движущуюся заряженную частицу. Сила Лоренца")</f>
-        <v>Действие магнитного поля на движущуюся заряженную частицу. Сила Лоренца</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ЭДС индукции в прямом проводнике длиной l, движущемся со скоростью V в однородном магнитном поле B")</f>
+        <v>ЭДС индукции в прямом проводнике длиной l, движущемся со скоростью V в однородном магнитном поле B</v>
       </c>
       <c r="R14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),813.0)</f>
-        <v>813</v>
-      </c>
-      <c r="S14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электромагнитные волны. Свойства электромагнитных волн")</f>
-        <v>Электромагнитные волны. Свойства электромагнитных волн</v>
-      </c>
-      <c r="T14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
-        <v>913</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),822.0)</f>
+        <v>822</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула тонкой линзы. Увеличение линзы")</f>
-        <v>Формула тонкой линзы. Увеличение линзы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость вида изображения от расстояния от линзы")</f>
+        <v>Зависимость вида изображения от расстояния от линзы</v>
       </c>
       <c r="V14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1013.0)</f>
-        <v>1013</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1015.0)</f>
+        <v>1015</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Лебедева. Давление света")</f>
-        <v>Опыты Лебедева. Давление света</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы")</f>
+        <v>Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы</v>
       </c>
       <c r="X14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
-        <v>1113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
+        <v>1120</v>
       </c>
       <c r="Y14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа со степенями")</f>
@@ -1711,302 +1657,260 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График координаты равномерного движения")</f>
-        <v>График координаты равномерного движения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.")</f>
+        <v>Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.</v>
       </c>
       <c r="B15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон малых упругих деформаций (закон Гука)")</f>
-        <v>Закон малых упругих деформаций (закон Гука)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила реакции опоры, вес (сила давления на опору)")</f>
+        <v>Сила реакции опоры, вес (сила давления на опору)</v>
       </c>
       <c r="D15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подвижный блок")</f>
-        <v>Подвижный блок</v>
-      </c>
-      <c r="F15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
+        <v>124</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия. Полная механическая энергия: E = Eк + Eп")</f>
-        <v>Энергия. Полная механическая энергия: E = Eк + Eп</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения при упругом ударе")</f>
+        <v>Законы сохранения при упругом ударе</v>
       </c>
       <c r="H15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь частоты (периода) колебаний с частотой (периодом) потенциальной и кинетической энергии")</f>
-        <v>Связь частоты (периода) колебаний с частотой (периодом) потенциальной и кинетической энергии</v>
-      </c>
-      <c r="J15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.0)</f>
-        <v>414</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объединенный газовый закон (уравнение Клапейрона)")</f>
-        <v>Объединенный газовый закон (уравнение Клапейрона)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атмосферное давление. Нормальные условия. Связь давления в атмосферах, мм. рт. ст. с паскалями")</f>
+        <v>Атмосферное давление. Нормальные условия. Связь давления в атмосферах, мм. рт. ст. с паскалями</v>
       </c>
       <c r="L15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),514.0)</f>
-        <v>514</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
+        <v>520</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Принцип суперпозиции электрических полей")</f>
-        <v>Принцип суперпозиции электрических полей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранение заряда/напряжения конденсатора при отключении/подключении к источнику тока")</f>
+        <v>Сохранение заряда/напряжения конденсатора при отключении/подключении к источнику тока</v>
       </c>
       <c r="N15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),614.0)</f>
-        <v>614</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
+        <v>625</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение электрических схем, знание разных приборов")</f>
-        <v>Чтение электрических схем, знание разных приборов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа, мощность и количество теплоты при последовательном и параллельном соединении потребителей")</f>
+        <v>Работа, мощность и количество теплоты при последовательном и параллельном соединении потребителей</v>
       </c>
       <c r="P15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
-        <v>714</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
+        <v>723</v>
       </c>
       <c r="Q15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило левой руки для движущейся заряженной частицы")</f>
-        <v>Правило левой руки для движущейся заряженной частицы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило Ленца")</f>
+        <v>Правило Ленца</v>
       </c>
       <c r="R15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),814.0)</f>
-        <v>814</v>
-      </c>
-      <c r="S15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Шкала электромагнитных волн. Применение различных диапазонов волн")</f>
-        <v>Шкала электромагнитных волн. Применение различных диапазонов волн</v>
-      </c>
-      <c r="T15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
-        <v>914</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),823.0)</f>
+        <v>823</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение изображений точки и отрезка прямой в собирающих и рассеивающих линзах и их системах")</f>
-        <v>Построение изображений точки и отрезка прямой в собирающих и рассеивающих линзах и их системах</v>
-      </c>
-      <c r="V15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1014.0)</f>
-        <v>1014</v>
-      </c>
-      <c r="W15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыт Резерфорда по рассеянию альфа частиц")</f>
-        <v>Опыт Резерфорда по рассеянию альфа частиц</v>
-      </c>
-      <c r="X15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
-        <v>1114</v>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Решение систем уравнений, выражение величин из уравнений")</f>
-        <v>Решение систем уравнений, выражение величин из уравнений</v>
-      </c>
-      <c r="Z15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1214.0)</f>
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График пути равномерного движения")</f>
-        <v>График пути равномерного движения</v>
-      </c>
-      <c r="B16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жесткость, определение жесткости по графику зависимости силы упругости от удлинения (длины) пружины")</f>
-        <v>Жесткость, определение жесткости по графику зависимости силы упругости от удлинения (длины) пружины</v>
-      </c>
-      <c r="D16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неподвижный блок")</f>
-        <v>Неподвижный блок</v>
-      </c>
-      <c r="F16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
-        <v>215</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь работы с изменением потенциальной энергии")</f>
-        <v>Связь работы с изменением потенциальной энергии</v>
-      </c>
-      <c r="H16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),315.0)</f>
-        <v>315</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынужденные колебания. Частота вынужненных колебаний")</f>
-        <v>Вынужденные колебания. Частота вынужненных колебаний</v>
-      </c>
-      <c r="J16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выражение для внутренней энергии одноатомного идеального газа")</f>
-        <v>Выражение для внутренней энергии одноатомного идеального газа</v>
-      </c>
-      <c r="L16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
-        <v>515</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциал системы зарядов")</f>
-        <v>Потенциал системы зарядов</v>
-      </c>
-      <c r="N16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),615.0)</f>
-        <v>615</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы параллельного соединения проводников")</f>
-        <v>Законы параллельного соединения проводников</v>
-      </c>
-      <c r="P16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
-        <v>715</v>
-      </c>
-      <c r="Q16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость траектории движения частицы от направления вектора скорости по отношению к магнитным линиям")</f>
-        <v>Зависимость траектории движения частицы от направления вектора скорости по отношению к магнитным линиям</v>
-      </c>
-      <c r="R16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),815.0)</f>
-        <v>815</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость вида изображения от расстояния от линзы")</f>
-        <v>Зависимость вида изображения от расстояния от линзы</v>
-      </c>
-      <c r="V16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1015.0)</f>
-        <v>1015</v>
-      </c>
-      <c r="W16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Планетарная модель атома")</f>
-        <v>Планетарная модель атома</v>
-      </c>
-      <c r="X16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1115.0)</f>
-        <v>1115</v>
-      </c>
-      <c r="Y16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выбирать необходимое оборудование,схемы,установки, для проведения эксперимента согласно поставленной цели")</f>
-        <v>Выбирать необходимое оборудование,схемы,установки, для проведения эксперимента согласно поставленной цели</v>
-      </c>
-      <c r="Z16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График ускорения при равномерном движении")</f>
-        <v>График ускорения при равномерном движении</v>
-      </c>
-      <c r="B17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательное и параллельное соединение пружин")</f>
-        <v>Последовательное и параллельное соединение пружин</v>
-      </c>
-      <c r="D17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
-        <v>116</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Золотое правило механики")</f>
-        <v> Золотое правило механики</v>
-      </c>
-      <c r="F17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Потенциальная энергия упруго деформированного тела")</f>
-        <v>Потенциальная энергия упруго деформированного тела</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
-        <v>316</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Резонанс. Резонансная кривая")</f>
-        <v>Резонанс. Резонансная кривая</v>
-      </c>
-      <c r="J17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Дальтона для давления смеси разреженных газов")</f>
-        <v>Закон Дальтона для давления смеси разреженных газов</v>
-      </c>
-      <c r="L17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
-        <v>516</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проводники в электростатическом поле. Электростатическая индукция. Электростатическая защита")</f>
-        <v>Проводники в электростатическом поле. Электростатическая индукция. Электростатическая защита</v>
-      </c>
-      <c r="N17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),616.0)</f>
-        <v>616</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы последовательного соединения проводников")</f>
-        <v>Законы последовательного соединения проводников</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),716.0)</f>
-        <v>716</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на движение заряженной частицы, влетевшей под углом 90 градусов к магнитным линиям ")</f>
-        <v>Задачи на движение заряженной частицы, влетевшей под углом 90 градусов к магнитным линиям </v>
-      </c>
-      <c r="R17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),816.0)</f>
-        <v>816</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ход луча, прошедшего линзу под произвольным углом к её главной
 оптической оси")</f>
         <v>Ход луча, прошедшего линзу под произвольным углом к её главной
 оптической оси</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V15" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1016.0)</f>
         <v>1016</v>
       </c>
+      <c r="W15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия связи нуклонов в ядре. Ядерные силы")</f>
+        <v>Энергия связи нуклонов в ядре. Ядерные силы</v>
+      </c>
+      <c r="X15" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
+        <v>1121</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Решение систем уравнений, выражение величин из уравнений")</f>
+        <v>Решение систем уравнений, выражение величин из уравнений</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1214.0)</f>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)")</f>
+        <v>График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)</v>
+      </c>
+      <c r="B16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление по определению, давление твердых тел")</f>
+        <v>Давление по определению, давление твердых тел</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения и изменения при неупругом ударе/абсолютно неупругом ударе")</f>
+        <v>Законы сохранения и изменения при неупругом ударе/абсолютно неупругом ударе</v>
+      </c>
+      <c r="H16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
+        <v>322</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Насыщенные и ненасыщенные пары")</f>
+        <v>Насыщенные и ненасыщенные пары</v>
+      </c>
+      <c r="L16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
+        <v>521</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение таблиц зависимости тока зарядки конденсатора от времени ")</f>
+        <v>Чтение таблиц зависимости тока зарядки конденсатора от времени </v>
+      </c>
+      <c r="N16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
+        <v>628</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полупроводниковый диод. Прохождение тока через полупроводниковый диод. Применение")</f>
+        <v>Полупроводниковый диод. Прохождение тока через полупроводниковый диод. Применение</v>
+      </c>
+      <c r="P16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),724.0)</f>
+        <v>724</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самоиндукция, ЭДС самоиндукции, поведение катушки в цепи с током")</f>
+        <v>Самоиндукция, ЭДС самоиндукции, поведение катушки в цепи с током</v>
+      </c>
+      <c r="R16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),825.0)</f>
+        <v>825</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интерференция света, разность хода, условия максимумов и минимумов")</f>
+        <v>Интерференция света, разность хода, условия максимумов и минимумов</v>
+      </c>
+      <c r="V16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1019.0)</f>
+        <v>1019</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефект массы ядра")</f>
+        <v>Дефект массы ядра</v>
+      </c>
+      <c r="X16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1122.0)</f>
+        <v>1122</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выбирать необходимое оборудование,схемы,установки, для проведения эксперимента согласно поставленной цели")</f>
+        <v>Выбирать необходимое оборудование,схемы,установки, для проведения эксперимента согласно поставленной цели</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1215.0)</f>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График координаты, перемещения, пути, ускорения при равноускоренном движении")</f>
+        <v>График координаты, перемещения, пути, ускорения при равноускоренном движении</v>
+      </c>
+      <c r="B17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона для движения тела по наклонной плоскости")</f>
+        <v>Применение второго закона Ньютона для движения тела по наклонной плоскости</v>
+      </c>
+      <c r="D17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
+        <v>129</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон изменения механической энергии")</f>
+        <v>Закон изменения механической энергии</v>
+      </c>
+      <c r="H17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественная зависимость плотности и давления насыщенного пара от температуры, их независимость от объёма насыщенного пара")</f>
+        <v>Качественная зависимость плотности и давления насыщенного пара от температуры, их независимость от объёма насыщенного пара</v>
+      </c>
+      <c r="L17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
+        <v>522</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение заряженной частицы в эдектрическом поле")</f>
+        <v>Движение заряженной частицы в эдектрическом поле</v>
+      </c>
+      <c r="N17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
+        <v>629</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конденсатор в цепи постоянного тока")</f>
+        <v>Конденсатор в цепи постоянного тока</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),725.0)</f>
+        <v>725</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия магнитного поля катушки с током")</f>
+        <v>Энергия магнитного поля катушки с током</v>
+      </c>
+      <c r="R17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),826.0)</f>
+        <v>826</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дифракционная решётка и ее формулы. Условие наблюдения главных максимумов")</f>
+        <v>Дифракционная решётка и ее формулы. Условие наблюдения главных максимумов</v>
+      </c>
+      <c r="V17" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1022.0)</f>
+        <v>1022</v>
+      </c>
       <c r="W17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Постулаты Бора")</f>
-        <v>Постулаты Бора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение альфа распада")</f>
+        <v>Уравнение альфа распада</v>
       </c>
       <c r="X17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
-        <v>1116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы площади и объема геометрических фигур и тел")</f>
@@ -2019,94 +1923,64 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция (модуль) скорости по графику координаты")</f>
-        <v>Проекция (модуль) скорости по графику координаты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и ее применение в кинематике, производная от уравнения")</f>
+        <v>Производная и ее применение в кинематике, производная от уравнения</v>
       </c>
       <c r="B18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Всемирное тяготение. Закон всемирного тяготения")</f>
-        <v>Всемирное тяготение. Закон всемирного тяготения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение связанных систем")</f>
+        <v>Движение связанных систем</v>
       </c>
       <c r="D18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление столба жидкости.")</f>
-        <v>Давление столба жидкости.</v>
-      </c>
-      <c r="F18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Замкнутая система. Закон  сохранения полной механической энергии")</f>
-        <v>Замкнутая система. Закон  сохранения полной механической энергии</v>
-      </c>
-      <c r="H18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
-        <v>317</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость амплитуды вынужденных колебаний от частоты внешней силы")</f>
-        <v>Зависимость амплитуды вынужденных колебаний от частоты внешней силы</v>
-      </c>
-      <c r="J18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изопроцессы в разреженном газе с постоянным числом частиц N (газовые законы)")</f>
-        <v>Изопроцессы в разреженном газе с постоянным числом частиц N (газовые законы)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютная и относительная влажность. Максимальная влажность")</f>
+        <v>Абсолютная и относительная влажность. Максимальная влажность</v>
       </c>
       <c r="L18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
-        <v>517</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
+        <v>524</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Условие равновесия зарядов: внутри проводника E = 0, внутри и на поверхности проводника φ = const")</f>
-        <v>Условие равновесия зарядов: внутри проводника E = 0, внутри и на поверхности проводника φ = const</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряженность и потенциал шара (либо тела любой другой формы)")</f>
+        <v>Напряженность и потенциал шара (либо тела любой другой формы)</v>
       </c>
       <c r="N18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),617.0)</f>
-        <v>617</v>
-      </c>
-      <c r="O18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сопротивление в смешанной цепи. Метод эквивалентных схем")</f>
-        <v>Сопротивление в смешанной цепи. Метод эквивалентных схем</v>
-      </c>
-      <c r="P18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),717.0)</f>
-        <v>717</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы движения заряженной частицы в электромагнитном поле")</f>
-        <v>Законы движения заряженной частицы в электромагнитном поле</v>
-      </c>
-      <c r="R18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),817.0)</f>
-        <v>817</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
+        <v>630</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оптические приборы: лупа, фотоаппарат, микроскоп, телескоп, проектор")</f>
-        <v>Оптические приборы: лупа, фотоаппарат, микроскоп, телескоп, проектор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Максимальный порядок спектра дифракционной решетки. Число максимумов дифракционной решетки")</f>
+        <v>Максимальный порядок спектра дифракционной решетки. Число максимумов дифракционной решетки</v>
       </c>
       <c r="V18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1017.0)</f>
-        <v>1017</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.0)</f>
+        <v>1023</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы")</f>
-        <v>Излучение и поглощение фотонов при переходе атома с одного уровня энергии на другой. Энергетические диаграммы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения бета распада электронного и позитронного типа")</f>
+        <v>Уравнения бета распада электронного и позитронного типа</v>
       </c>
       <c r="X18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
-        <v>1117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
+        <v>1126</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение проводить анализ  заданий представленных в виде картинки, сопоставлять текст и картинку, выделять необходимые элементы для решения задачи.")</f>
@@ -2119,94 +1993,64 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Путь (перемещение)  по графику координаты")</f>
-        <v>Путь (перемещение)  по графику координаты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение по графику координаты и графику скорости равноускоренного движения")</f>
+        <v>Ускорение по графику координаты и графику скорости равноускоренного движения</v>
       </c>
       <c r="B19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила тяжести")</f>
-        <v>Сила тяжести</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона при движении по окружности")</f>
+        <v>Применение второго закона Ньютона при движении по окружности</v>
       </c>
       <c r="D19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение атмосферного давления. Барометр")</f>
-        <v>Измерение атмосферного давления. Барометр</v>
-      </c>
-      <c r="F19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Превращение полной механической энергии при наличии силы трения")</f>
-        <v>Превращение полной механической энергии при наличии силы трения</v>
-      </c>
-      <c r="H19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),318.0)</f>
-        <v>318</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Амплитуда и период (частота) по таблице х(t)")</f>
-        <v>Амплитуда и период (частота) по таблице х(t)</v>
-      </c>
-      <c r="J19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графическое представление изопроцессов на pV-, pT- и VT- диаграммах")</f>
-        <v>Графическое представление изопроцессов на pV-, pT- и VT- диаграммах</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Испарение и конденсация. Причины влияющие на скорость испарения (температура, площадь поверхности, влажность, ветер, род жидкости)")</f>
+        <v>Испарение и конденсация. Причины влияющие на скорость испарения (температура, площадь поверхности, влажность, ветер, род жидкости)</v>
       </c>
       <c r="L19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
-        <v>518</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
+        <v>527</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диэлектрики в электростатическом поле. Поляризация диэлектриков")</f>
-        <v>Диэлектрики в электростатическом поле. Поляризация диэлектриков</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа сил поля по перемещению зарядов")</f>
+        <v>Работа сил поля по перемещению зарядов</v>
       </c>
       <c r="N19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
-        <v>618</v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа электрического тока")</f>
-        <v>Работа электрического тока</v>
-      </c>
-      <c r="P19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
-        <v>718</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Период (частота) движения заряженной частицы в магнитном поле")</f>
-        <v>Период (частота) движения заряженной частицы в магнитном поле</v>
-      </c>
-      <c r="R19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),818.0)</f>
-        <v>818</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
+        <v>631</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зрение. Дефекты зрения (близорукость, дальнозоркость). Очки")</f>
-        <v>Зрение. Дефекты зрения (близорукость, дальнозоркость). Очки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение области видения предмета в плоском зеркале")</f>
+        <v>Построение области видения предмета в плоском зеркале</v>
       </c>
       <c r="V19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018.0)</f>
-        <v>1018</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025.0)</f>
+        <v>1025</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Серии Бальмера, Лаймана, Пашена и так далее")</f>
-        <v>Серии Бальмера, Лаймана, Пашена и так далее</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения зарядового и массового числа при написании реакций и уравнений распада")</f>
+        <v>Законы сохранения зарядового и массового числа при написании реакций и уравнений распада</v>
       </c>
       <c r="X19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1118.0)</f>
-        <v>1118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
+        <v>1127</v>
       </c>
       <c r="Y19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Пифагора")</f>
@@ -2219,637 +2063,355 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение вектора на составляющие проекции")</f>
-        <v>Разложение вектора на составляющие проекции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)")</f>
+        <v>Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)</v>
       </c>
       <c r="B20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение свободного падения на небесных телах")</f>
-        <v>Ускорение свободного падения на небесных телах</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция равнодействующей силы по графику скорости")</f>
+        <v>Проекция равнодействующей силы по графику скорости</v>
       </c>
       <c r="D20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение давления больше или меньше атмосферного. Манометры")</f>
-        <v>Измерение давления больше или меньше атмосферного. Манометры</v>
-      </c>
-      <c r="F20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости кинетической, потенциальной и полной механической энергии от времени")</f>
-        <v>Графики зависимости кинетической, потенциальной и полной механической энергии от времени</v>
-      </c>
-      <c r="H20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
-        <v>319</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Механические волны. Условие существования механических волн (наличие среды)")</f>
-        <v>Механические волны. Условие существования механических волн (наличие среды)</v>
-      </c>
-      <c r="J20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнение неизвестного параметра по графикам изопроцессов")</f>
-        <v>Сравнение неизвестного параметра по графикам изопроцессов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение внутренней энергии при нагревании/охлаждении/фазовых переходах")</f>
+        <v>Изменение внутренней энергии при нагревании/охлаждении/фазовых переходах</v>
       </c>
       <c r="L20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
-        <v>519</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Диэлектрическая проницаемость вещества ε. Закон Кулона для среды с диэлектриком")</f>
-        <v>Диэлектрическая проницаемость вещества ε. Закон Кулона для среды с диэлектриком</v>
-      </c>
-      <c r="N20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),619.0)</f>
-        <v>619</v>
-      </c>
-      <c r="O20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мощность электрического тока")</f>
-        <v>Мощность электрического тока</v>
-      </c>
-      <c r="P20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
-        <v>719</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электромагнитная индукция. Опыты Фарадея")</f>
-        <v>Электромагнитная индукция. Опыты Фарадея</v>
-      </c>
-      <c r="R20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),819.0)</f>
-        <v>819</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
+        <v>528</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Интерференция света. Когерентные источники")</f>
-        <v>Интерференция света. Когерентные источники</v>
-      </c>
-      <c r="V20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1019.0)</f>
-        <v>1019</v>
-      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода")</f>
-        <v>Атом водорода по Бору. Линейчатый спектр атома водорода. Спектр уровней энергии атома водорода</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон радиоактивного распада, его статистический характер")</f>
+        <v>Закон радиоактивного распада, его статистический характер</v>
       </c>
       <c r="X20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
-        <v>1119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
+        <v>1128</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равноускоренное движение. Вектор ускорения.")</f>
-        <v>Равноускоренное движение. Вектор ускорения.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали")</f>
+        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали</v>
       </c>
       <c r="B21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость силы тяжести от высоты h над поверхностью планеты радиусом R")</f>
-        <v>Зависимость силы тяжести от высоты h над поверхностью планеты радиусом R</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение вдоль прямой под действием нескольких сил")</f>
+        <v>Движение вдоль прямой под действием нескольких сил</v>
       </c>
       <c r="D21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центр тяжести однородного тела")</f>
-        <v>Центр тяжести однородного тела</v>
-      </c>
-      <c r="F21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
-        <v>220</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Упругий и неупругий удар")</f>
-        <v>Упругий и неупругий удар</v>
-      </c>
-      <c r="H21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поперечные и продольные волны")</f>
-        <v>Поперечные и продольные волны</v>
-      </c>
-      <c r="J21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Атмосферное давление. Нормальные условия. Связь давления в атмосферах, мм. рт. ст. с паскалями")</f>
-        <v>Атмосферное давление. Нормальные условия. Связь давления в атмосферах, мм. рт. ст. с паскалями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кипение и конденсация жидкости. Удельная теплота кипения и конденсации")</f>
+        <v>Кипение и конденсация жидкости. Удельная теплота кипения и конденсации</v>
       </c>
       <c r="L21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
-        <v>520</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конденсатор. Электроёмкость конденсатора.")</f>
-        <v>Конденсатор. Электроёмкость конденсатора.</v>
-      </c>
-      <c r="N21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
-        <v>620</v>
-      </c>
-      <c r="O21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Джоуля-Ленца")</f>
-        <v>Закон Джоуля-Ленца</v>
-      </c>
-      <c r="P21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
-        <v>720</v>
-      </c>
-      <c r="Q21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поток вектора магнитной индукции")</f>
-        <v>Поток вектора магнитной индукции</v>
-      </c>
-      <c r="R21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),820.0)</f>
-        <v>820</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
+        <v>529</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оптическая разность хода двух волн. Условия наблюдения максимумов и минимумов в интерференционной картине от двух когерентных источников")</f>
-        <v>Оптическая разность хода двух волн. Условия наблюдения максимумов и минимумов в интерференционной картине от двух когерентных источников</v>
-      </c>
-      <c r="V21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1020.0)</f>
-        <v>1020</v>
-      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы")</f>
-        <v>Нуклонная модель ядра. Заряд ядра. Массовое число ядра. Изотопы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада")</f>
+        <v>График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада</v>
       </c>
       <c r="X21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
-        <v>1120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
+        <v>1129</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для проекции ускорения при равноускоренном прямолинейном движении")</f>
-        <v>Формула для проекции ускорения при равноускоренном прямолинейном движении</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.")</f>
+        <v>Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.</v>
       </c>
       <c r="B22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение небесных тел и их искусственных спутников")</f>
-        <v>Движение небесных тел и их искусственных спутников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила натяжения нити")</f>
+        <v>Сила натяжения нити</v>
       </c>
       <c r="D22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения при упругом ударе")</f>
-        <v>Законы сохранения при упругом ударе</v>
-      </c>
-      <c r="H22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преломление волн при переходе через границу раздела сред. Постоянство частоты")</f>
-        <v>Преломление волн при переходе через границу раздела сред. Постоянство частоты</v>
-      </c>
-      <c r="J22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
-        <v>421</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Насыщенные и ненасыщенные пары")</f>
-        <v>Насыщенные и ненасыщенные пары</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плавление и кристаллизация.  Удельная теплота плавления")</f>
+        <v>Плавление и кристаллизация.  Удельная теплота плавления</v>
       </c>
       <c r="L22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
-        <v>521</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электроёмкость плоского конденсатора")</f>
-        <v>Электроёмкость плоского конденсатора</v>
-      </c>
-      <c r="N22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),621.0)</f>
-        <v>621</v>
-      </c>
-      <c r="O22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мощность источника тока")</f>
-        <v>Мощность источника тока</v>
-      </c>
-      <c r="P22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
-        <v>721</v>
-      </c>
-      <c r="Q22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ЭДС индукции. Закон электромагнитной индукции Фарадея.")</f>
-        <v>ЭДС индукции. Закон электромагнитной индукции Фарадея.</v>
-      </c>
-      <c r="R22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),821.0)</f>
-        <v>821</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
+        <v>530</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дифракция света. Условие наблюдения дифракции света")</f>
-        <v>Дифракция света. Условие наблюдения дифракции света</v>
-      </c>
-      <c r="V22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1021.0)</f>
-        <v>1021</v>
-      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия связи нуклонов в ядре. Ядерные силы")</f>
-        <v>Энергия связи нуклонов в ядре. Ядерные силы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ядерные реакции. Деление и синтез ядер")</f>
+        <v>Ядерные реакции. Деление и синтез ядер</v>
       </c>
       <c r="X22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
-        <v>1121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
+        <v>1130</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке")</f>
-        <v>Мгновенная скорость. Оценка модуля скорости по тангенсу угла наклона графика координаты в соответствующей точке</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту")</f>
+        <v>Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту</v>
       </c>
       <c r="B23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первая космическая скорость")</f>
-        <v>Первая космическая скорость</v>
-      </c>
-      <c r="D23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
-        <v>122</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения и изменения при неупругом ударе/абсолютно неупругом ударе")</f>
-        <v>Законы сохранения и изменения при неупругом ударе/абсолютно неупругом ударе</v>
-      </c>
-      <c r="H23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
-        <v>322</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звук. Громкость и высота звука")</f>
-        <v>Звук. Громкость и высота звука</v>
-      </c>
-      <c r="J23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Качественная зависимость плотности и давления насыщенного пара от температуры, их независимость от объёма насыщенного пара")</f>
-        <v>Качественная зависимость плотности и давления насыщенного пара от температуры, их независимость от объёма насыщенного пара</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренняя энергия сгорания топлива. Удельная теплота сгорания топлива")</f>
+        <v>Внутренняя энергия сгорания топлива. Удельная теплота сгорания топлива</v>
       </c>
       <c r="L23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
-        <v>522</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельное соединение конденсаторов")</f>
-        <v>Параллельное соединение конденсаторов</v>
-      </c>
-      <c r="N23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
-        <v>622</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"КПД источника тока")</f>
-        <v>КПД источника тока</v>
-      </c>
-      <c r="P23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
-        <v>722</v>
-      </c>
-      <c r="Q23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ЭДС индукции в прямом проводнике длиной l, движущемся со скоростью V в однородном магнитном поле B")</f>
-        <v>ЭДС индукции в прямом проводнике длиной l, движущемся со скоростью V в однородном магнитном поле B</v>
-      </c>
-      <c r="R23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),822.0)</f>
-        <v>822</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533.0)</f>
+        <v>533</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дифракционная решётка и ее формулы. Условие наблюдения главных максимумов")</f>
-        <v>Дифракционная решётка и ее формулы. Условие наблюдения главных максимумов</v>
-      </c>
-      <c r="V23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1022.0)</f>
-        <v>1022</v>
-      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефект массы ядра")</f>
-        <v>Дефект массы ядра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементарные частицы и их свойства")</f>
+        <v>Элементарные частицы и их свойства</v>
       </c>
       <c r="X23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1122.0)</f>
-        <v>1122</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
+        <v>1131</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.")</f>
-        <v>Уравнения скорости, премещения и координаты для равноускоренного движения. Формула перемещения через скорость и ускорение.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту")</f>
+        <v>Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту</v>
       </c>
       <c r="B24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вторая космическая скорость")</f>
-        <v>Вторая космическая скорость</v>
-      </c>
-      <c r="D24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
-        <v>123</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон изменения механической энергии")</f>
-        <v>Закон изменения механической энергии</v>
-      </c>
-      <c r="H24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скорость распространения звука")</f>
-        <v>Скорость распространения звука</v>
-      </c>
-      <c r="J24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие влажности воздуха")</f>
-        <v>Понятие влажности воздуха</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Количество теплоты при нагревании/охлаждении. Удельная теплоемкость тел")</f>
+        <v> Количество теплоты при нагревании/охлаждении. Удельная теплоемкость тел</v>
       </c>
       <c r="L24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
-        <v>523</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Последовательного соединение конденсаторов")</f>
-        <v>Последовательного соединение конденсаторов</v>
-      </c>
-      <c r="N24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),623.0)</f>
-        <v>623</v>
-      </c>
-      <c r="O24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа, мощность и количество теплоты при последовательном и параллельном соединении потребителей")</f>
-        <v>Работа, мощность и количество теплоты при последовательном и параллельном соединении потребителей</v>
-      </c>
-      <c r="P24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
-        <v>723</v>
-      </c>
-      <c r="Q24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правило Ленца")</f>
-        <v>Правило Ленца</v>
-      </c>
-      <c r="R24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),823.0)</f>
-        <v>823</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
+        <v>536</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Максимальный порядок спектра дифракционной решетки. Число максимумов дифракционной решетки")</f>
-        <v>Максимальный порядок спектра дифракционной решетки. Число максимумов дифракционной решетки</v>
-      </c>
-      <c r="V24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1023.0)</f>
-        <v>1023</v>
-      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Радиоактивность. Опыт Резерфорда по определению состава радиоактивного излучения.")</f>
-        <v>Радиоактивность. Опыт Резерфорда по определению состава радиоактивного излучения.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инвариантность модуля скорости света в вакууме")</f>
+        <v>Инвариантность модуля скорости света в вакууме</v>
       </c>
       <c r="X24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1123.0)</f>
-        <v>1123</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
+        <v>1132</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)")</f>
-        <v>График скорости равноускоренного движения и его геометрический смысл (нахождение пути и перемещения  по площади фигуры под графиком скорости)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту")</f>
+        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту</v>
       </c>
       <c r="B25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вес (сила давления на опору)")</f>
-        <v>Вес (сила давления на опору)</v>
-      </c>
-      <c r="D25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
-        <v>124</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина волны. Определение длины волны по рисунку")</f>
-        <v>Длина волны. Определение длины волны по рисунку</v>
-      </c>
-      <c r="J25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абсолютная и относительная влажность. Максимальная влажность")</f>
-        <v>Абсолютная и относительная влажность. Максимальная влажность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ процессов нагревания/охлаждения, фазовых переходов по графикам t(Q), t(τ)")</f>
+        <v>Анализ процессов нагревания/охлаждения, фазовых переходов по графикам t(Q), t(τ)</v>
       </c>
       <c r="L25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
-        <v>524</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия заряженного конденсатора")</f>
-        <v>Энергия заряженного конденсатора</v>
-      </c>
-      <c r="N25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
-        <v>624</v>
-      </c>
-      <c r="O25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полупроводниковый диод. Прохождение тока через полупроводниковый диод. Применение")</f>
-        <v>Полупроводниковый диод. Прохождение тока через полупроводниковый диод. Применение</v>
-      </c>
-      <c r="P25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),724.0)</f>
-        <v>724</v>
-      </c>
-      <c r="Q25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Индуктивность. Ее зависимость от характеристик катушки и среды.")</f>
-        <v>Индуктивность. Ее зависимость от характеристик катушки и среды.</v>
-      </c>
-      <c r="R25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),824.0)</f>
-        <v>824</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),537.0)</f>
+        <v>537</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия света. Цвет")</f>
-        <v>Дисперсия света. Цвет</v>
-      </c>
-      <c r="V25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1024.0)</f>
-        <v>1024</v>
-      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физическая природа и проникающая способность альфа, бетта и гамма лучей")</f>
-        <v>Физическая природа и проникающая способность альфа, бетта и гамма лучей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий")</f>
+        <v>Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий</v>
       </c>
       <c r="X25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1124.0)</f>
-        <v>1124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
+        <v>1134</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График ускорения равноускоренного движения")</f>
-        <v>График ускорения равноускоренного движения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула центростремительного ускорения при равномерном движении по окружности")</f>
+        <v>Формула центростремительного ускорения при равномерном движении по окружности</v>
       </c>
       <c r="B26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Невесомость, перегрузка")</f>
-        <v>Невесомость, перегрузка</v>
-      </c>
-      <c r="D26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
-        <v>125</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь скорости распространения волны с длиной волны и частотой")</f>
-        <v>Связь скорости распространения волны с длиной волны и частотой</v>
-      </c>
-      <c r="J26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение влажности психрометром")</f>
-        <v>Определение влажности психрометром</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения энергии в тепловых процессах. Уравнение теплового баланса")</f>
+        <v>Закон сохранения энергии в тепловых процессах. Уравнение теплового баланса</v>
       </c>
       <c r="L26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
-        <v>525</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранение заряда при отключении заряженного конденсатора от источника тока")</f>
-        <v>Сохранение заряда при отключении заряженного конденсатора от источника тока</v>
-      </c>
-      <c r="N26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
-        <v>625</v>
-      </c>
-      <c r="O26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Конденсатор в цепи постоянного тока")</f>
-        <v>Конденсатор в цепи постоянного тока</v>
-      </c>
-      <c r="P26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),725.0)</f>
-        <v>725</v>
-      </c>
-      <c r="Q26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Самоиндукция. ЭДС самоиндукции.")</f>
-        <v>Самоиндукция. ЭДС самоиндукции.</v>
-      </c>
-      <c r="R26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),825.0)</f>
-        <v>825</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),539.0)</f>
+        <v>539</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение области видения предмета в плоском зеркале")</f>
-        <v>Построение области видения предмета в плоском зеркале</v>
-      </c>
-      <c r="V26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1025.0)</f>
-        <v>1025</v>
-      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение альфа распада")</f>
-        <v>Уравнение альфа распада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Релятивистский закон сложения скоростей")</f>
+        <v>Релятивистский закон сложения скоростей</v>
       </c>
       <c r="X26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
+        <v>1135</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График   координаты равноускоренного движения")</f>
-        <v>График   координаты равноускоренного движения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь линейной и угловой скорости")</f>
+        <v>Связь линейной и угловой скорости</v>
       </c>
       <c r="B27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Давление")</f>
-        <v>Давление</v>
-      </c>
-      <c r="D27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2857,63 +2419,45 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Влажность смеси газов")</f>
-        <v>Влажность смеси газов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Работа в изобарном и изохорном процессе, знак работы (зависимость от изменения объема)")</f>
+        <v> Работа в изобарном и изохорном процессе, знак работы (зависимость от изменения объема)</v>
       </c>
       <c r="L27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
-        <v>526</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сохранение напряжения постоянным при изменении характеристик конденсатора при подключенном источнике питания")</f>
-        <v>Сохранение напряжения постоянным при изменении характеристик конденсатора при подключенном источнике питания</v>
-      </c>
-      <c r="N27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
-        <v>626</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),540.0)</f>
+        <v>540</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия магнитного поля катушки с током")</f>
-        <v>Энергия магнитного поля катушки с током</v>
-      </c>
-      <c r="R27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),826.0)</f>
-        <v>826</v>
-      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения бета распада электронного и позитронного типа")</f>
-        <v>Уравнения бета распада электронного и позитронного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия свободной частицы")</f>
+        <v>Энергия свободной частицы</v>
       </c>
       <c r="X27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
-        <v>1126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
+        <v>1136</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и ее применение в механике")</f>
-        <v>Производная и ее применение в механике</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула, связывающая период и частоту обращения")</f>
+        <v>Формула, связывающая период и частоту обращения</v>
       </c>
       <c r="B28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы увеличения и уменьшения давления ")</f>
-        <v>Способы увеличения и уменьшения давления </v>
-      </c>
-      <c r="D28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2921,21 +2465,15 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Испарение и конденсация. Причины влияющие на скорость испарения (температура, площадь поверхности, влажность, ветер, род жидкости)")</f>
-        <v>Испарение и конденсация. Причины влияющие на скорость испарения (температура, площадь поверхности, влажность, ветер, род жидкости)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление работы по графику процесса на pV-диаграмме (площадь фигуры под графиком)")</f>
+        <v>Вычисление работы по графику процесса на pV-диаграмме (площадь фигуры под графиком)</v>
       </c>
       <c r="L28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
-        <v>527</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон Ома для цепи с конденсатором")</f>
-        <v>Закон Ома для цепи с конденсатором</v>
-      </c>
-      <c r="N28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),627.0)</f>
-        <v>627</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
+        <v>541</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2945,33 +2483,27 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы сохранения зарядового и массового числа при написании реакций и уравнений распада")</f>
-        <v>Законы сохранения зарядового и массового числа при написании реакций и уравнений распада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс частицы")</f>
+        <v>Импульс частицы</v>
       </c>
       <c r="X28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
-        <v>1127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
+        <v>1137</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оценка модуля ускорения по тангенсу угла графика скорости в соответствующей точке")</f>
-        <v>Оценка модуля ускорения по тангенсу угла графика скорости в соответствующей точке</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для вычисления скорости через радиус окружности и период обращени")</f>
+        <v>Формула для вычисления скорости через радиус окружности и период обращени</v>
       </c>
       <c r="B29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изображение сил и нахождение их проекций тела на наклонной плоскости")</f>
-        <v>Изображение сил и нахождение их проекций тела на наклонной плоскости</v>
-      </c>
-      <c r="D29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2979,23 +2511,15 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение внутренней энергии в процессе испарения и конденсации
-")</f>
-        <v>Изменение внутренней энергии в процессе испарения и конденсации
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первый закон термодинамики")</f>
+        <v>Первый закон термодинамики</v>
       </c>
       <c r="L29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
-        <v>528</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чтение таблиц зависимости тока зарядки конденсатора от времени ")</f>
-        <v>Чтение таблиц зависимости тока зарядки конденсатора от времени </v>
-      </c>
-      <c r="N29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
-        <v>628</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
+        <v>542</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3005,33 +2529,21 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон радиоактивного распада, его статистический характер")</f>
-        <v>Закон радиоактивного распада, его статистический характер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь массы и энергии свободной частицы")</f>
+        <v>Связь массы и энергии свободной частицы</v>
       </c>
       <c r="X29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
-        <v>1128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
+        <v>1138</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График перемещения равноускоренного движения")</f>
-        <v>График перемещения равноускоренного движения</v>
-      </c>
-      <c r="B30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона для движения тела по наклонной плоскости")</f>
-        <v>Применение второго закона Ньютона для движения тела по наклонной плоскости</v>
-      </c>
-      <c r="D30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
-        <v>129</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3039,21 +2551,15 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кипение жидкости. Удельная теплота парообразования и конденсации")</f>
-        <v>Кипение жидкости. Удельная теплота парообразования и конденсации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Адиабатный процесс. График адиабатного процесса")</f>
+        <v>Адиабатный процесс. График адиабатного процесса</v>
       </c>
       <c r="L30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
-        <v>529</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение заряженной частицы в эдектрическом поле")</f>
-        <v>Движение заряженной частицы в эдектрическом поле</v>
-      </c>
-      <c r="N30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
-        <v>629</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
+        <v>544</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3063,33 +2569,21 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада")</f>
-        <v>График зависимости числа ядер (массы) радиоактивного распада от времени. Период полураспада</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия релятивистской частицы")</f>
+        <v>Кинетическая энергия релятивистской частицы</v>
       </c>
       <c r="X30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
-        <v>1129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
+        <v>1139</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График пути равноускоренного движения")</f>
-        <v>График пути равноускоренного движения</v>
-      </c>
-      <c r="B31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение связанных систем")</f>
-        <v>Движение связанных систем</v>
-      </c>
-      <c r="D31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3097,21 +2591,15 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плавление и кристаллизация.  Удельная теплота плавления")</f>
-        <v>Плавление и кристаллизация.  Удельная теплота плавления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обычные тепловые машины, связь теплот и работы, КПД")</f>
+        <v>Обычные тепловые машины, связь теплот и работы, КПД</v>
       </c>
       <c r="L31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
-        <v>530</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Напряженность и потенциал шара")</f>
-        <v>Напряженность и потенциал шара</v>
-      </c>
-      <c r="N31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
-        <v>630</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
+        <v>545</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3121,33 +2609,21 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ядерные реакции. Деление и синтез ядер")</f>
-        <v>Ядерные реакции. Деление и синтез ядер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия покоя свободной частицы")</f>
+        <v>Энергия покоя свободной частицы</v>
       </c>
       <c r="X31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
-        <v>1130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
+        <v>1140</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение по графику координаты и графику скорости равноускоренного движения")</f>
-        <v>Ускорение по графику координаты и графику скорости равноускоренного движения</v>
-      </c>
-      <c r="B32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение второго закона Ньютона при движении по окружности")</f>
-        <v>Применение второго закона Ньютона при движении по окружности</v>
-      </c>
-      <c r="D32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3155,21 +2631,15 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Изменение внутренней энергии при плавлении и кристаллизации")</f>
-        <v>Изменение внутренней энергии при плавлении и кристаллизации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Замкнутый цикл. Нахождение работы за цикл как площадь фигуры внутри цикла")</f>
+        <v>Замкнутый цикл. Нахождение работы за цикл как площадь фигуры внутри цикла</v>
       </c>
       <c r="L32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
-        <v>531</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа сил поля по перемещению зарядов")</f>
-        <v>Работа сил поля по перемещению зарядов</v>
-      </c>
-      <c r="N32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
-        <v>631</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
+        <v>547</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3178,34 +2648,16 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементарные частицы и их свойства")</f>
-        <v>Элементарные частицы и их свойства</v>
-      </c>
-      <c r="X32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
-        <v>1131</v>
-      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)")</f>
-        <v>Формулы, описывающие свободное падение тела по вертикали (движение тела вниз или вверх относительно поверхности Земли)</v>
-      </c>
-      <c r="B33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Проекция равнодействующей силы по графику скорости")</f>
-        <v>Проекция равнодействующей силы по графику скорости</v>
-      </c>
-      <c r="D33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3213,12 +2665,12 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость температуры кипения от внешнего давления")</f>
-        <v>Зависимость температуры кипения от внешнего давления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Идеальная тепловая машина, цикл Карно, его КПД")</f>
+        <v>Идеальная тепловая машина, цикл Карно, его КПД</v>
       </c>
       <c r="L33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),532.0)</f>
-        <v>532</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
+        <v>548</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -3230,48 +2682,24 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инвариантность модуля скорости света в вакууме")</f>
-        <v>Инвариантность модуля скорости света в вакууме</v>
-      </c>
-      <c r="X33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
-        <v>1132</v>
-      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали")</f>
-        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при свободном падении тела по вертикали</v>
-      </c>
-      <c r="B34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение вдоль прямой под действием нескольких сил")</f>
-        <v>Движение вдоль прямой под действием нескольких сил</v>
-      </c>
-      <c r="D34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренняя энергия сгорания топлива. Удельная теплота сгорания топлива")</f>
-        <v>Внутренняя энергия сгорания топлива. Удельная теплота сгорания топлива</v>
-      </c>
-      <c r="L34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533.0)</f>
-        <v>533</v>
-      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3282,48 +2710,24 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пространство и время в СТО. Принцип относительности Эйнштейна")</f>
-        <v>Пространство и время в СТО. Принцип относительности Эйнштейна</v>
-      </c>
-      <c r="X34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
-        <v>1133</v>
-      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.")</f>
-        <v>Движение тела брошенного с горизонтальной скоростью.Уравнения описывающие  движение.</v>
-      </c>
-      <c r="B35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сила натяжения нити")</f>
-        <v>Сила натяжения нити</v>
-      </c>
-      <c r="D35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловое равновесие и температура")</f>
-        <v>Тепловое равновесие и температура</v>
-      </c>
-      <c r="L35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),534.0)</f>
-        <v>534</v>
-      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3334,26 +2738,14 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий")</f>
-        <v>Следствия из постулатов СТО: сокращение длин, замедление промежутков времени, относительность одновременности событий</v>
-      </c>
-      <c r="X35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
-        <v>1134</v>
-      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ускорение свободного падения. Направление. Независимость от массы тела.")</f>
-        <v>Ускорение свободного падения. Направление. Независимость от массы тела.</v>
-      </c>
-      <c r="B36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3362,14 +2754,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие внутренней энергии. Внутренняя энергия ее зависимость от температуры, агрегатного состояния, массы и независимость от механической энергии")</f>
-        <v>Понятие внутренней энергии. Внутренняя энергия ее зависимость от температуры, агрегатного состояния, массы и независимость от механической энергии</v>
-      </c>
-      <c r="L36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535.0)</f>
-        <v>535</v>
-      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3380,26 +2766,14 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Релятивистский закон сложения скоростей")</f>
-        <v>Релятивистский закон сложения скоростей</v>
-      </c>
-      <c r="X36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
-        <v>1135</v>
-      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закономерности при равноускоренном движении без начальной скорости")</f>
-        <v>Закономерности при равноускоренном движении без начальной скорости</v>
-      </c>
-      <c r="B37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3408,14 +2782,8 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Количество теплоты. Удельная теплоёмкость вещества")</f>
-        <v>Количество теплоты. Удельная теплоёмкость вещества</v>
-      </c>
-      <c r="L37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
-        <v>536</v>
-      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3426,26 +2794,14 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия свободной частицы")</f>
-        <v>Энергия свободной частицы</v>
-      </c>
-      <c r="X37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
-        <v>1136</v>
-      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту")</f>
-        <v>Уравнения скорости координаты и ускорения  для движения тела брошенного под углом к горизонту</v>
-      </c>
-      <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3454,14 +2810,8 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение удельной теплоемкости, удельной теплоты плавления, удельной теплоты парообразования по графикам Q(T)")</f>
-        <v>Определение удельной теплоемкости, удельной теплоты плавления, удельной теплоты парообразования по графикам Q(T)</v>
-      </c>
-      <c r="L38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),537.0)</f>
-        <v>537</v>
-      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3472,26 +2822,14 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Импульс частицы")</f>
-        <v>Импульс частицы</v>
-      </c>
-      <c r="X38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
-        <v>1137</v>
-      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту")</f>
-        <v>Дальность  полета, время полета(подъема), высота подъема тела брошенного под углом к горизонту</v>
-      </c>
-      <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3500,14 +2838,8 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение процессов  по графику(фазовых переходов) по графику Q(T). Постоянство температуры при фазовом переходе")</f>
-        <v>Определение процессов  по графику(фазовых переходов) по графику Q(T). Постоянство температуры при фазовом переходе</v>
-      </c>
-      <c r="L39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),538.0)</f>
-        <v>538</v>
-      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3518,26 +2850,14 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь массы и энергии свободной частицы")</f>
-        <v>Связь массы и энергии свободной частицы</v>
-      </c>
-      <c r="X39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
-        <v>1138</v>
-      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение траектории тела брошенного под углом к горизонту")</f>
-        <v>Уравнение траектории тела брошенного под углом к горизонту</v>
-      </c>
-      <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3546,14 +2866,8 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон сохранения энергии в тепловых процессах. Уравнение теплового баланса")</f>
-        <v>Закон сохранения энергии в тепловых процессах. Уравнение теплового баланса</v>
-      </c>
-      <c r="L40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),539.0)</f>
-        <v>539</v>
-      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3564,26 +2878,14 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кинетическая энергия релятивистской частицы")</f>
-        <v>Кинетическая энергия релятивистской частицы</v>
-      </c>
-      <c r="X40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
-        <v>1139</v>
-      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту")</f>
-        <v>Графики зависимости от времени для проекции ускорения, проекции скорости и координаты при движении тела брошенного под углом к горизонту</v>
-      </c>
-      <c r="B41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3592,14 +2894,8 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа в изобарном и изохорном процессе.")</f>
-        <v>Работа в изобарном и изохорном процессе.</v>
-      </c>
-      <c r="L41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),540.0)</f>
-        <v>540</v>
-      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3610,26 +2906,14 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Энергия покоя свободной частицы")</f>
-        <v>Энергия покоя свободной частицы</v>
-      </c>
-      <c r="X41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
-        <v>1140</v>
-      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное, тангенсальное и нормальное ускорение при криволинейном движении")</f>
-        <v>Полное, тангенсальное и нормальное ускорение при криволинейном движении</v>
-      </c>
-      <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3638,14 +2922,8 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление работы по графику процесса на pV-диаграмме (площадь фигуры под графиком)")</f>
-        <v>Вычисление работы по графику процесса на pV-диаграмме (площадь фигуры под графиком)</v>
-      </c>
-      <c r="L42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
-        <v>541</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3656,26 +2934,14 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон взаимосвязи энергии и массы")</f>
-        <v>Закон взаимосвязи энергии и массы</v>
-      </c>
-      <c r="X42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
-        <v>1141</v>
-      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свободное падение ")</f>
-        <v>Свободное падение </v>
-      </c>
-      <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3684,14 +2950,8 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первый закон термодинамики")</f>
-        <v>Первый закон термодинамики</v>
-      </c>
-      <c r="L43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
-        <v>542</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3708,14 +2968,8 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равномерное движение по окружности. Центростремительное ускорение.")</f>
-        <v>Равномерное движение по окружности. Центростремительное ускорение.</v>
-      </c>
-      <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3724,14 +2978,8 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение первого закона термодинамики к изопроцессам")</f>
-        <v>Применение первого закона термодинамики к изопроцессам</v>
-      </c>
-      <c r="L44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
-        <v>543</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3748,14 +2996,8 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Направление вектора скорости и ускорения при равномерном движении по окружности ")</f>
-        <v>Направление вектора скорости и ускорения при равномерном движении по окружности </v>
-      </c>
-      <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3764,14 +3006,8 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Адиабатный процесс. График адиабатного процесса")</f>
-        <v>Адиабатный процесс. График адиабатного процесса</v>
-      </c>
-      <c r="L45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
-        <v>544</v>
-      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3788,14 +3024,8 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь линейной и угловой скорости")</f>
-        <v>Связь линейной и угловой скорости</v>
-      </c>
-      <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3804,14 +3034,8 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловые машины. Преобразование энергии в тепловых машинах")</f>
-        <v>Тепловые машины. Преобразование энергии в тепловых машинах</v>
-      </c>
-      <c r="L46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
-        <v>545</v>
-      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3828,14 +3052,8 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула, связывающая период и частоту обращения")</f>
-        <v>Формула, связывающая период и частоту обращения</v>
-      </c>
-      <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3844,14 +3062,8 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие КПД. КПД тепловой машины")</f>
-        <v>Понятие КПД. КПД тепловой машины</v>
-      </c>
-      <c r="L47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
-        <v>546</v>
-      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3868,14 +3080,8 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула для вычисления скорости через радиус окружности и период обращени")</f>
-        <v>Формула для вычисления скорости через радиус окружности и период обращени</v>
-      </c>
-      <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3884,14 +3090,8 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Замкнутый цикл. Нахождение работы за цикл как площадь фигуры внутри цикла")</f>
-        <v>Замкнутый цикл. Нахождение работы за цикл как площадь фигуры внутри цикла</v>
-      </c>
-      <c r="L48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
-        <v>547</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3908,14 +3108,8 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Модуль скорости по графику координаты при равномерном движении по окружности")</f>
-        <v>Модуль скорости по графику координаты при равномерном движении по окружности</v>
-      </c>
-      <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3924,14 +3118,8 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Максимальное значение КПД. Цикл Карно")</f>
-        <v>Максимальное значение КПД. Цикл Карно</v>
-      </c>
-      <c r="L49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
-        <v>548</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3948,14 +3136,8 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение скорости по графику координаты")</f>
-        <v>Нахождение скорости по графику координаты</v>
-      </c>
-      <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3964,14 +3146,8 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутрення энергия идеального газа  и изменение внутренней энергии газа")</f>
-        <v>Внутрення энергия идеального газа  и изменение внутренней энергии газа</v>
-      </c>
-      <c r="L50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),549.0)</f>
-        <v>549</v>
-      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3988,14 +3164,8 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы Кеплера")</f>
-        <v>Законы Кеплера</v>
-      </c>
-      <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>

--- a/umit_files/umit_fiz.xlsx
+++ b/umit_files/umit_fiz.xlsx
@@ -2100,8 +2100,14 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="U20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия света. Цвет")</f>
+        <v>Дисперсия света. Цвет</v>
+      </c>
+      <c r="V20" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1026.0)</f>
+        <v>1026</v>
+      </c>
       <c r="W20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Закон радиоактивного распада, его статистический характер")</f>
         <v>Закон радиоактивного распада, его статистический характер</v>
